--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-28.5714285714285</v>
+      </c>
       <c r="L12" t="n">
         <v>26.21</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-16.66666666666662</v>
+      </c>
       <c r="L13" t="n">
         <v>26.17000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-16.66666666666662</v>
+      </c>
       <c r="L14" t="n">
         <v>26.14</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.800000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L15" t="n">
         <v>26.15000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.666666666666761</v>
+      </c>
       <c r="L16" t="n">
         <v>26.15000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.099999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>26.17000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.099999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-7.692307692307819</v>
+      </c>
       <c r="L18" t="n">
         <v>26.17000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-7.692307692307525</v>
+      </c>
       <c r="L19" t="n">
         <v>26.17000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-7.692307692307776</v>
+      </c>
       <c r="L20" t="n">
         <v>26.12</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.700000000000003</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-7.692307692307776</v>
+      </c>
       <c r="L21" t="n">
         <v>26.12</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.900000000000002</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.666666666666508</v>
+      </c>
       <c r="L22" t="n">
         <v>26.13</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.12903225806451</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>26.12</v>
@@ -1466,7 +1488,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.225806451612947</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L24" t="n">
         <v>26.14</v>
@@ -1515,7 +1537,7 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.24999999999998</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L25" t="n">
         <v>26.11</v>
@@ -1564,7 +1586,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>5.882352941176446</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L26" t="n">
         <v>26.13</v>
@@ -1613,7 +1635,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>11.7647058823529</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L27" t="n">
         <v>26.15</v>
@@ -1662,7 +1684,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>11.764705882353</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L28" t="n">
         <v>26.19</v>
@@ -1711,7 +1733,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.263157894736822</v>
+        <v>10.00000000000014</v>
       </c>
       <c r="L29" t="n">
         <v>26.17</v>
@@ -1760,7 +1782,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K30" t="n">
-        <v>-12.8205128205128</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L30" t="n">
         <v>26.17</v>
@@ -1809,7 +1831,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-9.999999999999947</v>
       </c>
       <c r="L31" t="n">
         <v>26.17</v>
@@ -1860,7 +1882,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.857142857142892</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>26.15</v>
@@ -1911,7 +1933,7 @@
         <v>5.000000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-5.882352941176324</v>
       </c>
       <c r="L33" t="n">
         <v>26.16</v>
@@ -1962,7 +1984,7 @@
         <v>5.300000000000008</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.263157894736812</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L34" t="n">
         <v>26.12</v>
@@ -2013,7 +2035,7 @@
         <v>5.600000000000009</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.263157894736812</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L35" t="n">
         <v>26.13000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.263157894736901</v>
+        <v>-26.31578947368403</v>
       </c>
       <c r="L36" t="n">
         <v>26.09</v>
@@ -2115,7 +2137,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.108108108108098</v>
+        <v>-41.17647058823522</v>
       </c>
       <c r="L37" t="n">
         <v>26.04</v>
@@ -2166,7 +2188,7 @@
         <v>5.900000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.52631578947362</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L38" t="n">
         <v>25.96</v>
@@ -2217,7 +2239,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K39" t="n">
-        <v>-15.78947368421052</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L39" t="n">
         <v>25.92</v>
@@ -2268,7 +2290,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.882352941176434</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L40" t="n">
         <v>25.9</v>
@@ -2319,7 +2341,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.090909090909092</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L41" t="n">
         <v>25.87</v>
@@ -2370,7 +2392,7 @@
         <v>6.300000000000011</v>
       </c>
       <c r="K42" t="n">
-        <v>-23.52941176470584</v>
+        <v>-53.84615384615389</v>
       </c>
       <c r="L42" t="n">
         <v>25.81</v>
@@ -2421,7 +2443,7 @@
         <v>6.600000000000012</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.571428571428566</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L43" t="n">
         <v>25.76999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>6.900000000000013</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.555555555555517</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L44" t="n">
         <v>25.78999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>7.000000000000014</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.857142857142886</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>25.76999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>7.300000000000015</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.857142857142886</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>25.79999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>7.400000000000013</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.571428571428456</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>25.81999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>7.800000000000015</v>
       </c>
       <c r="K48" t="n">
-        <v>-24.32432432432429</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>25.80999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>8.100000000000016</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.857142857142886</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>25.83999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>8.500000000000014</v>
       </c>
       <c r="K50" t="n">
-        <v>13.51351351351348</v>
+        <v>27.99999999999993</v>
       </c>
       <c r="L50" t="n">
         <v>25.90999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>8.500000000000014</v>
       </c>
       <c r="K51" t="n">
-        <v>11.11111111111104</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L51" t="n">
         <v>25.97999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>8.900000000000013</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>13.04347826086959</v>
       </c>
       <c r="L52" t="n">
         <v>26.03999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>8.900000000000013</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.564102564102597</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>26.06999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>8.900000000000013</v>
       </c>
       <c r="K54" t="n">
-        <v>5.555555555555528</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L54" t="n">
         <v>26.06999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>8.900000000000013</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.03030303030307</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L55" t="n">
         <v>26.07999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>9.000000000000014</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-12.50000000000017</v>
       </c>
       <c r="L56" t="n">
         <v>26.04999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>9.200000000000017</v>
       </c>
       <c r="K57" t="n">
-        <v>5.882352941176544</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L57" t="n">
         <v>26.04999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>2.857142857142787</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L58" t="n">
         <v>26.06999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>9.500000000000021</v>
       </c>
       <c r="K59" t="n">
-        <v>8.571428571428566</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L59" t="n">
         <v>26.06999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>9.500000000000021</v>
       </c>
       <c r="K60" t="n">
-        <v>8.571428571428566</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L60" t="n">
         <v>26.02999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>9.700000000000021</v>
       </c>
       <c r="K61" t="n">
-        <v>13.51351351351348</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L61" t="n">
         <v>26.01</v>
@@ -3390,7 +3412,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K62" t="n">
-        <v>13.51351351351348</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L62" t="n">
         <v>25.99999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>15.78947368421052</v>
+        <v>19.9999999999999</v>
       </c>
       <c r="L63" t="n">
         <v>26.02999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>10.50000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>5.555555555555517</v>
+        <v>12.49999999999986</v>
       </c>
       <c r="L64" t="n">
         <v>26.04999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>10.60000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>11.11111111111113</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L65" t="n">
         <v>26.07999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>10.70000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>6.666666666666478</v>
       </c>
       <c r="L66" t="n">
         <v>26.11</v>
@@ -3645,7 +3667,7 @@
         <v>10.80000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L67" t="n">
         <v>26.11</v>
@@ -3696,7 +3718,7 @@
         <v>10.90000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>9.677419354838696</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>26.12</v>
@@ -3849,7 +3871,7 @@
         <v>11.10000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.07692307692289</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L71" t="n">
         <v>26.08</v>
@@ -3900,7 +3922,7 @@
         <v>11.20000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.04347826086951</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L72" t="n">
         <v>26.06</v>
@@ -3951,7 +3973,7 @@
         <v>11.20000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>-13.04347826086951</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L73" t="n">
         <v>26</v>
@@ -4002,7 +4024,7 @@
         <v>11.20000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>-13.04347826086951</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>25.95</v>
@@ -4053,7 +4075,7 @@
         <v>11.50000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>-23.07692307692299</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>25.86</v>
@@ -4104,7 +4126,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L76" t="n">
         <v>25.82999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.142857142857216</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L77" t="n">
         <v>25.80999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>3.703703703703742</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>25.80999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L80" t="n">
         <v>25.80999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>12.30000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L81" t="n">
         <v>25.84999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>12.40000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>8.333333333333432</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L82" t="n">
         <v>25.88999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.761904761904826</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L83" t="n">
         <v>25.93999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>12.60000000000003</v>
       </c>
       <c r="K84" t="n">
-        <v>4.761904761904826</v>
+        <v>81.81818181818217</v>
       </c>
       <c r="L84" t="n">
         <v>25.99999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>12.80000000000003</v>
       </c>
       <c r="K85" t="n">
-        <v>9.090909090909062</v>
+        <v>75.00000000000044</v>
       </c>
       <c r="L85" t="n">
         <v>26.11</v>
@@ -4614,7 +4636,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K86" t="n">
-        <v>4.347826086956589</v>
+        <v>40.00000000000036</v>
       </c>
       <c r="L86" t="n">
         <v>26.15</v>
@@ -4665,7 +4687,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K87" t="n">
-        <v>9.090909090909062</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L87" t="n">
         <v>26.19</v>
@@ -4716,7 +4738,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>18.18181818181815</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L88" t="n">
         <v>26.23</v>
@@ -4767,7 +4789,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>8.33333333333332</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L89" t="n">
         <v>26.25</v>
@@ -4818,7 +4840,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K90" t="n">
-        <v>15.38461538461536</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L90" t="n">
         <v>26.29</v>
@@ -4869,7 +4891,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K91" t="n">
-        <v>20.00000000000006</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L91" t="n">
         <v>26.3</v>
@@ -4920,7 +4942,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K92" t="n">
-        <v>20.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>26.31</v>
@@ -4971,7 +4993,7 @@
         <v>13.80000000000002</v>
       </c>
       <c r="K93" t="n">
-        <v>23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>26.32</v>
@@ -5022,7 +5044,7 @@
         <v>13.90000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>25.92592592592597</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L94" t="n">
         <v>26.32999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>44.00000000000018</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>26.32999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>23.80952380952387</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L96" t="n">
         <v>26.33999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>30.43478260869582</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L97" t="n">
         <v>26.36999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>27.27272727272739</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L98" t="n">
         <v>26.39</v>
@@ -5277,7 +5299,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>27.27272727272739</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L99" t="n">
         <v>26.43</v>
@@ -5328,7 +5350,7 @@
         <v>14.50000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>33.33333333333343</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L100" t="n">
         <v>26.47000000000001</v>

--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C2" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="D2" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E2" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>42215.9286</v>
       </c>
       <c r="G2" t="n">
-        <v>26.33833333333335</v>
+        <v>292027.2537999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C3" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D3" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F3" t="n">
-        <v>9233.3207</v>
+        <v>5175.4145</v>
       </c>
       <c r="G3" t="n">
-        <v>26.33833333333335</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E4" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F4" t="n">
-        <v>7715.4372</v>
+        <v>48201.7287</v>
       </c>
       <c r="G4" t="n">
-        <v>26.33666666666668</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C5" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E5" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1512.7117</v>
+        <v>102273.7161</v>
       </c>
       <c r="G5" t="n">
-        <v>26.33333333333335</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.3000000000000007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D6" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F6" t="n">
-        <v>16874.3653</v>
+        <v>38617.2537</v>
       </c>
       <c r="G6" t="n">
-        <v>26.33000000000002</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3999999999999986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F7" t="n">
-        <v>9210.2374</v>
+        <v>25536.4904</v>
       </c>
       <c r="G7" t="n">
-        <v>26.32333333333334</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C8" t="n">
         <v>26.2</v>
@@ -726,32 +652,24 @@
         <v>26.2</v>
       </c>
       <c r="E8" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F8" t="n">
-        <v>110000</v>
+        <v>13421.4833</v>
       </c>
       <c r="G8" t="n">
-        <v>26.32000000000001</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>1126.9594</v>
       </c>
       <c r="G9" t="n">
-        <v>26.31666666666668</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,29 +725,21 @@
         <v>26.4</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>27881.7121</v>
       </c>
       <c r="G10" t="n">
-        <v>26.31500000000001</v>
+        <v>289197.0609999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10941.987</v>
+        <v>10095.8712</v>
       </c>
       <c r="G11" t="n">
-        <v>26.30666666666668</v>
+        <v>289197.0609999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.299999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>7380.45</v>
+        <v>1296.6965</v>
       </c>
       <c r="G12" t="n">
-        <v>26.30500000000001</v>
+        <v>287900.3644999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-28.5714285714285</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E13" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>3700</v>
+        <v>84432.83749999999</v>
       </c>
       <c r="G13" t="n">
-        <v>26.30000000000001</v>
+        <v>372333.2019999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +853,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F14" t="n">
-        <v>807.4896</v>
+        <v>820.7766</v>
       </c>
       <c r="G14" t="n">
-        <v>26.29666666666667</v>
+        <v>371512.4253999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.5</v>
+        <v>26.3</v>
       </c>
       <c r="K14" t="n">
-        <v>-16.66666666666662</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,33 +904,29 @@
         <v>26.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2300</v>
+        <v>79441.29270000001</v>
       </c>
       <c r="G15" t="n">
-        <v>26.29500000000001</v>
+        <v>450953.7180999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.800000000000001</v>
+        <v>26.2</v>
       </c>
       <c r="K15" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26.15000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,33 +947,27 @@
         <v>26.1</v>
       </c>
       <c r="F16" t="n">
-        <v>94515.4016</v>
+        <v>3559</v>
       </c>
       <c r="G16" t="n">
-        <v>26.28833333333334</v>
+        <v>447394.7180999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.15000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +976,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>1274.2374</v>
       </c>
       <c r="G17" t="n">
-        <v>26.28333333333334</v>
+        <v>447394.7180999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1019,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D18" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F18" t="n">
-        <v>81</v>
+        <v>79242.68949999999</v>
       </c>
       <c r="G18" t="n">
-        <v>26.27833333333334</v>
+        <v>368152.0286</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.099999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1060,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>80949.0114</v>
+        <v>654</v>
       </c>
       <c r="G19" t="n">
-        <v>26.275</v>
+        <v>368806.0286</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.199999999999999</v>
+        <v>25.9</v>
       </c>
       <c r="K19" t="n">
-        <v>-7.692307692307525</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1103,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C20" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D20" t="n">
         <v>25.9</v>
       </c>
-      <c r="D20" t="n">
-        <v>26</v>
-      </c>
       <c r="E20" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="F20" t="n">
-        <v>80746.6388</v>
+        <v>165219.339</v>
       </c>
       <c r="G20" t="n">
-        <v>26.26333333333334</v>
+        <v>203586.6896</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.600000000000001</v>
+        <v>26</v>
       </c>
       <c r="K20" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1317,44 +1149,38 @@
         <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E21" t="n">
         <v>26</v>
       </c>
       <c r="F21" t="n">
-        <v>1264.4039</v>
+        <v>81973.2182</v>
       </c>
       <c r="G21" t="n">
-        <v>26.25166666666667</v>
+        <v>285559.9077999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.700000000000003</v>
+        <v>25.6</v>
       </c>
       <c r="K21" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26.12</v>
+        <v>26.3</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>26.185</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1189,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C22" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D22" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E22" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F22" t="n">
-        <v>22889.5038</v>
+        <v>22438.8212</v>
       </c>
       <c r="G22" t="n">
-        <v>26.24333333333334</v>
+        <v>307998.7289999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.900000000000002</v>
+        <v>26.1</v>
       </c>
       <c r="K22" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L22" t="n">
-        <v>26.13</v>
+        <v>26.3</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1232,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C23" t="n">
         <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F23" t="n">
-        <v>1897.6527</v>
+        <v>2840</v>
       </c>
       <c r="G23" t="n">
-        <v>26.23166666666667</v>
+        <v>305158.7289999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.100000000000001</v>
+        <v>26.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>26.12</v>
+        <v>26.3</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>26.145</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1275,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C24" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D24" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F24" t="n">
-        <v>13400</v>
+        <v>14939.9991</v>
       </c>
       <c r="G24" t="n">
-        <v>26.22333333333334</v>
+        <v>290218.7298999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.300000000000001</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.666666666666761</v>
-      </c>
-      <c r="L24" t="n">
-        <v>26.14</v>
+        <v>26.3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>26.14000000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1513,44 +1321,38 @@
         <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E25" t="n">
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>1800</v>
+        <v>816</v>
       </c>
       <c r="G25" t="n">
-        <v>26.21500000000001</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>25.8</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.666666666666761</v>
-      </c>
-      <c r="L25" t="n">
-        <v>26.11</v>
+        <v>26.3</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>26.13000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1361,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C26" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D26" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E26" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>26.21166666666667</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.800000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="K26" t="n">
-        <v>5.882352941176544</v>
-      </c>
-      <c r="L26" t="n">
-        <v>26.13</v>
+        <v>26.3</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1404,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C27" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D27" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E27" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F27" t="n">
-        <v>68181.8181</v>
+        <v>6200</v>
       </c>
       <c r="G27" t="n">
-        <v>26.21</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.899999999999999</v>
+        <v>26.1</v>
       </c>
       <c r="K27" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L27" t="n">
-        <v>26.15</v>
+        <v>26.3</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1447,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C28" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D28" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="E28" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>25213.5316</v>
       </c>
       <c r="G28" t="n">
-        <v>26.21166666666667</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.100000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="K28" t="n">
-        <v>15.78947368421055</v>
-      </c>
-      <c r="L28" t="n">
-        <v>26.19</v>
+        <v>26.3</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1709,44 +1493,38 @@
         <v>26.2</v>
       </c>
       <c r="C29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D29" t="n">
         <v>26.2</v>
       </c>
       <c r="E29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F29" t="n">
-        <v>1456.7816</v>
+        <v>2492.0716</v>
       </c>
       <c r="G29" t="n">
-        <v>26.205</v>
+        <v>293526.8014999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.600000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="K29" t="n">
-        <v>10.00000000000014</v>
-      </c>
-      <c r="L29" t="n">
-        <v>26.17</v>
+        <v>26.3</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>26.17000000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1533,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C30" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D30" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E30" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F30" t="n">
-        <v>6121.3977</v>
+        <v>764.766</v>
       </c>
       <c r="G30" t="n">
-        <v>26.19333333333334</v>
+        <v>293526.8014999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.800000000000004</v>
+        <v>26.2</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.761904761904826</v>
-      </c>
-      <c r="L30" t="n">
-        <v>26.17</v>
+        <v>26.3</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>26.145</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1576,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C31" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F31" t="n">
-        <v>4194.5167</v>
+        <v>23700</v>
       </c>
       <c r="G31" t="n">
-        <v>26.18333333333334</v>
+        <v>317226.8014999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.900000000000006</v>
+        <v>26.2</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.999999999999947</v>
-      </c>
-      <c r="L31" t="n">
-        <v>26.17</v>
+        <v>26.3</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>26.145</v>
-      </c>
-      <c r="N31" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1619,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D32" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F32" t="n">
-        <v>12962.2668</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>26.17333333333334</v>
+        <v>317236.8014999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>26.15</v>
+        <v>26.3</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="N32" t="n">
-        <v>26.16333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1660,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C33" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D33" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E33" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F33" t="n">
-        <v>8737.4815</v>
+        <v>9233.3207</v>
       </c>
       <c r="G33" t="n">
-        <v>26.16833333333334</v>
+        <v>317236.8014999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>-5.882352941176324</v>
-      </c>
-      <c r="L33" t="n">
-        <v>26.16</v>
+        <v>26.3</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="N33" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1701,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C34" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E34" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="F34" t="n">
-        <v>81028.0959</v>
+        <v>7715.4372</v>
       </c>
       <c r="G34" t="n">
-        <v>26.15833333333334</v>
+        <v>309521.3643</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.300000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L34" t="n">
-        <v>26.12</v>
+        <v>26.3</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="N34" t="n">
-        <v>26.13333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1742,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F35" t="n">
-        <v>13839.7281</v>
+        <v>1512.7117</v>
       </c>
       <c r="G35" t="n">
-        <v>26.15333333333333</v>
+        <v>308008.6526</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>-11.11111111111102</v>
-      </c>
-      <c r="L35" t="n">
-        <v>26.13000000000001</v>
+        <v>26.3</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="N35" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1783,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C36" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E36" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F36" t="n">
-        <v>1318.4368</v>
+        <v>16874.3653</v>
       </c>
       <c r="G36" t="n">
-        <v>26.145</v>
+        <v>291134.2873</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>-26.31578947368403</v>
-      </c>
-      <c r="L36" t="n">
-        <v>26.09</v>
+        <v>26.3</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="N36" t="n">
-        <v>26.12333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1824,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C37" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D37" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E37" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>581</v>
+        <v>9210.2374</v>
       </c>
       <c r="G37" t="n">
-        <v>26.14</v>
+        <v>281924.0499</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>-41.17647058823522</v>
-      </c>
-      <c r="L37" t="n">
-        <v>26.04</v>
+        <v>26.3</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>26.095</v>
-      </c>
-      <c r="N37" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1865,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C38" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D38" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E38" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="F38" t="n">
-        <v>1953.7233</v>
+        <v>110000</v>
       </c>
       <c r="G38" t="n">
-        <v>26.13333333333333</v>
+        <v>391924.0499</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.900000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>-23.07692307692299</v>
-      </c>
-      <c r="L38" t="n">
-        <v>25.96</v>
+        <v>26.3</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>26.075</v>
-      </c>
-      <c r="N38" t="n">
-        <v>26.10666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1906,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="C39" t="n">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="D39" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="E39" t="n">
-        <v>25.7</v>
+        <v>26.3</v>
       </c>
       <c r="F39" t="n">
-        <v>26097.3101</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>26.125</v>
+        <v>391934.0499</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>-16.66666666666652</v>
-      </c>
-      <c r="L39" t="n">
-        <v>25.92</v>
+        <v>26.3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>26.045</v>
-      </c>
-      <c r="N39" t="n">
-        <v>26.08666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1947,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="C40" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="D40" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="E40" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="F40" t="n">
-        <v>6614.7859</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>26.11333333333333</v>
+        <v>391944.0499</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L40" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>26.035</v>
-      </c>
-      <c r="N40" t="n">
-        <v>26.06333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1988,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="D41" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="F41" t="n">
-        <v>29383.4145</v>
+        <v>10941.987</v>
       </c>
       <c r="G41" t="n">
-        <v>26.10166666666667</v>
+        <v>381002.0629</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6.000000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L41" t="n">
-        <v>25.87</v>
+        <v>26.3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="N41" t="n">
-        <v>26.05333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +2029,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="C42" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="D42" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="E42" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="F42" t="n">
-        <v>268236.5238</v>
+        <v>7380.45</v>
       </c>
       <c r="G42" t="n">
-        <v>26.08833333333333</v>
+        <v>388382.5129</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.300000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-53.84615384615389</v>
-      </c>
-      <c r="L42" t="n">
-        <v>25.81</v>
+        <v>26.3</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="N42" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +2070,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="C43" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D43" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E43" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="F43" t="n">
-        <v>42807.9807</v>
+        <v>3700</v>
       </c>
       <c r="G43" t="n">
-        <v>26.07833333333333</v>
+        <v>388382.5129</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.600000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L43" t="n">
-        <v>25.76999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>25.965</v>
-      </c>
-      <c r="N43" t="n">
-        <v>26.01666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,37 +2123,27 @@
         <v>26</v>
       </c>
       <c r="F44" t="n">
-        <v>1153.846153846154</v>
+        <v>807.4896</v>
       </c>
       <c r="G44" t="n">
-        <v>26.075</v>
+        <v>387575.0233</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L44" t="n">
-        <v>25.78999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>25.955</v>
-      </c>
-      <c r="N44" t="n">
-        <v>26.01666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2152,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C45" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D45" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E45" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="F45" t="n">
-        <v>13862</v>
+        <v>2300</v>
       </c>
       <c r="G45" t="n">
-        <v>26.06833333333334</v>
+        <v>389875.0233</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>25.76999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="N45" t="n">
-        <v>26.00333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2193,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C46" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D46" t="n">
         <v>26.2</v>
       </c>
       <c r="E46" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F46" t="n">
-        <v>120017.8439</v>
+        <v>94515.4016</v>
       </c>
       <c r="G46" t="n">
-        <v>26.07</v>
+        <v>295359.6217</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>25.79999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>25.945</v>
-      </c>
-      <c r="N46" t="n">
-        <v>26.00666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2234,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C47" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D47" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E47" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10700</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>26.07</v>
+        <v>296359.6217</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J47" t="n">
-        <v>7.400000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>20</v>
-      </c>
-      <c r="L47" t="n">
-        <v>25.81999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>25.93000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>26.00333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2275,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C48" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E48" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="F48" t="n">
-        <v>62841.7906</v>
+        <v>81</v>
       </c>
       <c r="G48" t="n">
-        <v>26.06666666666667</v>
+        <v>296359.6217</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J48" t="n">
-        <v>7.800000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>25.80999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>25.88500000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>25.98666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2316,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C49" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D49" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>21990.921</v>
+        <v>80949.0114</v>
       </c>
       <c r="G49" t="n">
-        <v>26.06666666666667</v>
+        <v>377308.6331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>8.100000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L49" t="n">
-        <v>25.83999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>25.88000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>25.97666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2357,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E50" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>80746.6388</v>
       </c>
       <c r="G50" t="n">
-        <v>26.08000000000001</v>
+        <v>296561.9943</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8.500000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>27.99999999999993</v>
-      </c>
-      <c r="L50" t="n">
-        <v>25.90999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>25.90500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>25.99333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,46 +2401,36 @@
         <v>26</v>
       </c>
       <c r="C51" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="D51" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E51" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F51" t="n">
-        <v>126472.499</v>
+        <v>1264.4039</v>
       </c>
       <c r="G51" t="n">
-        <v>26.08500000000001</v>
+        <v>297826.3982</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J51" t="n">
-        <v>8.500000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>45.4545454545454</v>
-      </c>
-      <c r="L51" t="n">
-        <v>25.97999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>25.925</v>
-      </c>
-      <c r="N51" t="n">
-        <v>26.00666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2439,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F52" t="n">
-        <v>25111.1721</v>
+        <v>22889.5038</v>
       </c>
       <c r="G52" t="n">
-        <v>26.08000000000001</v>
+        <v>320715.902</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>8.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>13.04347826086959</v>
-      </c>
-      <c r="L52" t="n">
-        <v>26.03999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>25.925</v>
-      </c>
-      <c r="N52" t="n">
-        <v>26</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,37 +2492,27 @@
         <v>26</v>
       </c>
       <c r="F53" t="n">
-        <v>2185.8795</v>
+        <v>1897.6527</v>
       </c>
       <c r="G53" t="n">
-        <v>26.08000000000001</v>
+        <v>318818.2493</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>8.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>26.06999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>25.92000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>26</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,46 +2524,36 @@
         <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D54" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E54" t="n">
         <v>26</v>
       </c>
       <c r="F54" t="n">
-        <v>835.1647</v>
+        <v>13400</v>
       </c>
       <c r="G54" t="n">
-        <v>26.08333333333335</v>
+        <v>332218.2493</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>8.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>5.263157894736921</v>
-      </c>
-      <c r="L54" t="n">
-        <v>26.06999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>25.93000000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>25.99333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,37 +2574,27 @@
         <v>26</v>
       </c>
       <c r="F55" t="n">
-        <v>15400</v>
+        <v>1800</v>
       </c>
       <c r="G55" t="n">
-        <v>26.08166666666668</v>
+        <v>330418.2493</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.900000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L55" t="n">
-        <v>26.07999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>25.925</v>
-      </c>
-      <c r="N55" t="n">
-        <v>25.99333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2603,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C56" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E56" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1700</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>26.07833333333335</v>
+        <v>330428.2493</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J56" t="n">
-        <v>9.000000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-12.50000000000017</v>
-      </c>
-      <c r="L56" t="n">
-        <v>26.04999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>25.925</v>
-      </c>
-      <c r="N56" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2644,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F57" t="n">
-        <v>1845.0456</v>
+        <v>68181.8181</v>
       </c>
       <c r="G57" t="n">
-        <v>26.07833333333335</v>
+        <v>398610.0674000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J57" t="n">
-        <v>9.200000000000017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>28.57142857142868</v>
-      </c>
-      <c r="L57" t="n">
-        <v>26.04999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>25.93500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2685,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="C58" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="D58" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="E58" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="F58" t="n">
-        <v>4200</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>26.07500000000002</v>
+        <v>398620.0674000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J58" t="n">
-        <v>9.40000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-7.692307692307776</v>
-      </c>
-      <c r="L58" t="n">
-        <v>26.06999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>25.94000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>25.94666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,50 +2726,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C59" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D59" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F59" t="n">
-        <v>2443.0149</v>
+        <v>1456.7816</v>
       </c>
       <c r="G59" t="n">
-        <v>26.07166666666668</v>
+        <v>397163.2858000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>9.500000000000021</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-39.99999999999957</v>
-      </c>
-      <c r="L59" t="n">
-        <v>26.06999999999999</v>
+        <v>26.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>25.95500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>25.94333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
+        <v>0.9873954372623575</v>
       </c>
     </row>
     <row r="60">
@@ -3286,46 +2770,30 @@
         <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="D60" t="n">
         <v>26</v>
       </c>
       <c r="E60" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F60" t="n">
-        <v>7556.9851</v>
+        <v>6121.3977</v>
       </c>
       <c r="G60" t="n">
-        <v>26.06833333333335</v>
+        <v>391041.8881000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9.500000000000021</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-39.99999999999957</v>
-      </c>
-      <c r="L60" t="n">
-        <v>26.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>25.94666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2802,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C61" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D61" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E61" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F61" t="n">
-        <v>2300</v>
+        <v>4194.5167</v>
       </c>
       <c r="G61" t="n">
-        <v>26.06666666666668</v>
+        <v>395236.4048000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.700000000000021</v>
-      </c>
-      <c r="K61" t="n">
-        <v>24.99999999999967</v>
-      </c>
-      <c r="L61" t="n">
-        <v>26.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>25.995</v>
-      </c>
-      <c r="N61" t="n">
-        <v>25.95333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2837,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C62" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E62" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F62" t="n">
-        <v>90949.2248</v>
+        <v>12962.2668</v>
       </c>
       <c r="G62" t="n">
-        <v>26.05666666666669</v>
+        <v>395236.4048000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J62" t="n">
-        <v>10.00000000000002</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-9.09090909090915</v>
-      </c>
-      <c r="L62" t="n">
-        <v>25.99999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="N62" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2872,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C63" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D63" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E63" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F63" t="n">
-        <v>65320.7785</v>
+        <v>8737.4815</v>
       </c>
       <c r="G63" t="n">
-        <v>26.05333333333335</v>
+        <v>403973.8863000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J63" t="n">
-        <v>10.40000000000002</v>
-      </c>
-      <c r="K63" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="L63" t="n">
-        <v>26.02999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="N63" t="n">
-        <v>25.95666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2907,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C64" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D64" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E64" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F64" t="n">
-        <v>874</v>
+        <v>81028.0959</v>
       </c>
       <c r="G64" t="n">
-        <v>26.05166666666669</v>
+        <v>322945.7904000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J64" t="n">
-        <v>10.50000000000002</v>
-      </c>
-      <c r="K64" t="n">
-        <v>12.49999999999986</v>
-      </c>
-      <c r="L64" t="n">
-        <v>26.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>26.06</v>
-      </c>
-      <c r="N64" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2942,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C65" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D65" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F65" t="n">
-        <v>49360.3583</v>
+        <v>13839.7281</v>
       </c>
       <c r="G65" t="n">
-        <v>26.05333333333335</v>
+        <v>336785.5185000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J65" t="n">
-        <v>10.60000000000003</v>
-      </c>
-      <c r="K65" t="n">
-        <v>24.99999999999994</v>
-      </c>
-      <c r="L65" t="n">
-        <v>26.07999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="N65" t="n">
-        <v>25.97666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2977,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F66" t="n">
-        <v>1800</v>
+        <v>1318.4368</v>
       </c>
       <c r="G66" t="n">
-        <v>26.05500000000002</v>
+        <v>335467.0817</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J66" t="n">
-        <v>10.70000000000003</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6.666666666666478</v>
-      </c>
-      <c r="L66" t="n">
-        <v>26.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="N66" t="n">
-        <v>25.98666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +3012,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C67" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D67" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F67" t="n">
-        <v>736</v>
+        <v>581</v>
       </c>
       <c r="G67" t="n">
-        <v>26.05666666666669</v>
+        <v>335467.0817</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J67" t="n">
-        <v>10.80000000000003</v>
-      </c>
-      <c r="K67" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L67" t="n">
-        <v>26.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="N67" t="n">
-        <v>25.99333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +3047,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F68" t="n">
-        <v>95420.965</v>
+        <v>1953.7233</v>
       </c>
       <c r="G68" t="n">
-        <v>26.05333333333335</v>
+        <v>333513.3584</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>10.90000000000003</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>26.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>26.095</v>
-      </c>
-      <c r="N68" t="n">
-        <v>26.00000000000001</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +3082,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F69" t="n">
-        <v>226196.5915</v>
+        <v>26097.3101</v>
       </c>
       <c r="G69" t="n">
-        <v>26.04833333333335</v>
+        <v>307416.0483</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>10.90000000000003</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>26.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>26.095</v>
-      </c>
-      <c r="N69" t="n">
-        <v>26.01000000000001</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +3117,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="E70" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F70" t="n">
-        <v>86778.451</v>
+        <v>6614.7859</v>
       </c>
       <c r="G70" t="n">
-        <v>26.04166666666669</v>
+        <v>307416.0483</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>10.90000000000003</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-16.66666666666652</v>
-      </c>
-      <c r="L70" t="n">
-        <v>26.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>26.075</v>
-      </c>
-      <c r="N70" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +3152,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="C71" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="D71" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E71" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="F71" t="n">
-        <v>19500</v>
+        <v>29383.4145</v>
       </c>
       <c r="G71" t="n">
-        <v>26.03833333333335</v>
+        <v>307416.0483</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="J71" t="n">
-        <v>11.10000000000003</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-9.090909090908857</v>
-      </c>
-      <c r="L71" t="n">
-        <v>26.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>26.045</v>
-      </c>
-      <c r="N71" t="n">
-        <v>26.02333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3187,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="C72" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="D72" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E72" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="F72" t="n">
-        <v>8152.6471</v>
+        <v>268236.5238</v>
       </c>
       <c r="G72" t="n">
-        <v>26.03166666666669</v>
+        <v>39179.5245</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11.20000000000003</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-74.99999999999977</v>
-      </c>
-      <c r="L72" t="n">
-        <v>26.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="N72" t="n">
-        <v>26.03333333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,7 +3222,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C73" t="n">
         <v>25.7</v>
@@ -3955,40 +3231,24 @@
         <v>25.7</v>
       </c>
       <c r="E73" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="F73" t="n">
-        <v>1697.7058</v>
+        <v>42807.9807</v>
       </c>
       <c r="G73" t="n">
-        <v>26.02500000000002</v>
+        <v>81987.5052</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11.20000000000003</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-71.42857142857115</v>
-      </c>
-      <c r="L73" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>26.015</v>
-      </c>
-      <c r="N73" t="n">
-        <v>26.03333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3257,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="C74" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="D74" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="E74" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="F74" t="n">
-        <v>5300.992</v>
+        <v>1153.846153846154</v>
       </c>
       <c r="G74" t="n">
-        <v>26.02000000000002</v>
+        <v>83141.35135384616</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.8000000000000007</v>
-      </c>
-      <c r="J74" t="n">
-        <v>11.20000000000003</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>25.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>26.00000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>26.02333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3292,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="C75" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="D75" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="E75" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="F75" t="n">
-        <v>13508.9961</v>
+        <v>13862</v>
       </c>
       <c r="G75" t="n">
-        <v>26.00500000000003</v>
+        <v>69279.35135384616</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.100000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>11.50000000000003</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>25.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>26.00666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,46 +3330,30 @@
         <v>25.9</v>
       </c>
       <c r="C76" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D76" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E76" t="n">
         <v>25.9</v>
       </c>
       <c r="F76" t="n">
-        <v>44676.9485</v>
+        <v>120017.8439</v>
       </c>
       <c r="G76" t="n">
-        <v>26.0016666666667</v>
+        <v>189297.1952538462</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J76" t="n">
-        <v>12.00000000000003</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-16.66666666666686</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25.82999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>25.99666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3362,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C77" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D77" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E77" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F77" t="n">
-        <v>7300</v>
+        <v>10700</v>
       </c>
       <c r="G77" t="n">
-        <v>25.99666666666669</v>
+        <v>178597.1952538462</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.6000000000000014</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12.00000000000003</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L77" t="n">
-        <v>25.80999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>25.96</v>
-      </c>
-      <c r="N77" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4204,46 +3400,36 @@
         <v>26</v>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="D78" t="n">
         <v>26</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="F78" t="n">
-        <v>7600</v>
+        <v>62841.7906</v>
       </c>
       <c r="G78" t="n">
-        <v>25.99333333333336</v>
+        <v>115755.4046538462</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>12.10000000000003</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>25.80999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>25.965</v>
-      </c>
-      <c r="N78" t="n">
-        <v>26</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,37 +3450,25 @@
         <v>26</v>
       </c>
       <c r="F79" t="n">
-        <v>6889.6007</v>
+        <v>21990.921</v>
       </c>
       <c r="G79" t="n">
-        <v>25.98833333333336</v>
+        <v>137746.3256538462</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.10000000000003</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>25.80999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>25.965</v>
-      </c>
-      <c r="N79" t="n">
-        <v>26</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3477,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="F80" t="n">
-        <v>33522.1874</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>25.99000000000003</v>
+        <v>137756.3256538462</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12.10000000000003</v>
-      </c>
-      <c r="K80" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L80" t="n">
-        <v>25.80999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>25.965</v>
-      </c>
-      <c r="N80" t="n">
-        <v>25.98666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4357,46 +3519,34 @@
         <v>26</v>
       </c>
       <c r="C81" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D81" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F81" t="n">
-        <v>100795.8065</v>
+        <v>126472.499</v>
       </c>
       <c r="G81" t="n">
-        <v>25.99333333333336</v>
+        <v>137756.3256538462</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12.30000000000003</v>
-      </c>
-      <c r="K81" t="n">
-        <v>45.4545454545454</v>
-      </c>
-      <c r="L81" t="n">
-        <v>25.84999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>25.965</v>
-      </c>
-      <c r="N81" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3555,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E82" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F82" t="n">
-        <v>36141.1536</v>
+        <v>25111.1721</v>
       </c>
       <c r="G82" t="n">
-        <v>25.99166666666669</v>
+        <v>112645.1535538462</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.3999999999999986</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12.40000000000003</v>
-      </c>
-      <c r="K82" t="n">
-        <v>33.33333333333353</v>
-      </c>
-      <c r="L82" t="n">
-        <v>25.88999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>25.975</v>
-      </c>
-      <c r="N82" t="n">
-        <v>25.98333333333334</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3594,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D83" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E83" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F83" t="n">
-        <v>1000</v>
+        <v>2185.8795</v>
       </c>
       <c r="G83" t="n">
-        <v>25.99500000000003</v>
+        <v>112645.1535538462</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12.50000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>38.46153846153855</v>
-      </c>
-      <c r="L83" t="n">
-        <v>25.93999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>25.97000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>25.99000000000001</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3633,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="D84" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E84" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>835.1647</v>
       </c>
       <c r="G84" t="n">
-        <v>25.99666666666669</v>
+        <v>112645.1535538462</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12.60000000000003</v>
-      </c>
-      <c r="K84" t="n">
-        <v>81.81818181818217</v>
-      </c>
-      <c r="L84" t="n">
-        <v>25.99999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>25.975</v>
-      </c>
-      <c r="N84" t="n">
-        <v>26</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,22 +3672,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="D85" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="F85" t="n">
-        <v>21930.6654</v>
+        <v>15400</v>
       </c>
       <c r="G85" t="n">
-        <v>26.00500000000003</v>
+        <v>112645.1535538462</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4581,26 +3695,14 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>12.80000000000003</v>
-      </c>
-      <c r="K85" t="n">
-        <v>75.00000000000044</v>
-      </c>
-      <c r="L85" t="n">
-        <v>26.11</v>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>25.98500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>26.01666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3711,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C86" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D86" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1849.4901</v>
+        <v>1700</v>
       </c>
       <c r="G86" t="n">
-        <v>26.00500000000003</v>
+        <v>110945.1535538462</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J86" t="n">
-        <v>13.00000000000002</v>
-      </c>
-      <c r="K86" t="n">
-        <v>40.00000000000036</v>
-      </c>
-      <c r="L86" t="n">
-        <v>26.15</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="N86" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +3750,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C87" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D87" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E87" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1999.9999</v>
+        <v>1845.0456</v>
       </c>
       <c r="G87" t="n">
-        <v>26.00333333333336</v>
+        <v>112790.1991538462</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J87" t="n">
-        <v>13.00000000000002</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.3333333333336</v>
-      </c>
-      <c r="L87" t="n">
-        <v>26.19</v>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>26</v>
-      </c>
-      <c r="N87" t="n">
-        <v>26.03666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3789,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C88" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="D88" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="E88" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F88" t="n">
-        <v>37318.0385</v>
+        <v>4200</v>
       </c>
       <c r="G88" t="n">
-        <v>26.00000000000002</v>
+        <v>108590.1991538462</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J88" t="n">
-        <v>13.10000000000002</v>
-      </c>
-      <c r="K88" t="n">
-        <v>40.00000000000014</v>
-      </c>
-      <c r="L88" t="n">
-        <v>26.23</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>26.02</v>
-      </c>
-      <c r="N88" t="n">
-        <v>26.05333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +3828,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C89" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>2443.0149</v>
       </c>
       <c r="G89" t="n">
-        <v>26.0016666666667</v>
+        <v>111033.2140538462</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J89" t="n">
-        <v>13.30000000000002</v>
-      </c>
-      <c r="K89" t="n">
-        <v>16.66666666666671</v>
-      </c>
-      <c r="L89" t="n">
-        <v>26.25</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="N89" t="n">
-        <v>26.06</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +3867,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C90" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="D90" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E90" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F90" t="n">
-        <v>25868.3408</v>
+        <v>7556.9851</v>
       </c>
       <c r="G90" t="n">
-        <v>26.01000000000003</v>
+        <v>111033.2140538462</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J90" t="n">
-        <v>13.50000000000002</v>
-      </c>
-      <c r="K90" t="n">
-        <v>16.66666666666671</v>
-      </c>
-      <c r="L90" t="n">
-        <v>26.29</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>26.07333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,49 +3906,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E91" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F91" t="n">
-        <v>849.4901</v>
+        <v>2300</v>
       </c>
       <c r="G91" t="n">
-        <v>26.01500000000003</v>
+        <v>113333.2140538462</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J91" t="n">
-        <v>13.60000000000002</v>
-      </c>
-      <c r="K91" t="n">
-        <v>16.66666666666671</v>
-      </c>
-      <c r="L91" t="n">
-        <v>26.3</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>26.075</v>
-      </c>
-      <c r="N91" t="n">
-        <v>26.07666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +3945,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C92" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D92" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E92" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F92" t="n">
-        <v>18849.6774</v>
+        <v>90949.2248</v>
       </c>
       <c r="G92" t="n">
-        <v>26.01833333333336</v>
+        <v>22383.98925384617</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J92" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>26.31</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="N92" t="n">
-        <v>26.08666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +3984,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C93" t="n">
         <v>26.3</v>
       </c>
       <c r="D93" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E93" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F93" t="n">
-        <v>54685.0583</v>
+        <v>65320.7785</v>
       </c>
       <c r="G93" t="n">
-        <v>26.0216666666667</v>
+        <v>87704.76775384617</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J93" t="n">
-        <v>13.80000000000002</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>26.32</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="N93" t="n">
-        <v>26.08666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5017,49 +4023,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C94" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D94" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E94" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F94" t="n">
-        <v>23461</v>
+        <v>874</v>
       </c>
       <c r="G94" t="n">
-        <v>26.0316666666667</v>
+        <v>86830.76775384617</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J94" t="n">
-        <v>13.90000000000002</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-9.090909090909268</v>
-      </c>
-      <c r="L94" t="n">
-        <v>26.32999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>26.16499999999999</v>
-      </c>
-      <c r="N94" t="n">
-        <v>26.09333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,22 +4062,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D95" t="n">
         <v>26.4</v>
       </c>
-      <c r="C95" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D95" t="n">
-        <v>26.5</v>
-      </c>
       <c r="E95" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F95" t="n">
-        <v>104784.5554</v>
+        <v>49360.3583</v>
       </c>
       <c r="G95" t="n">
-        <v>26.03833333333337</v>
+        <v>136191.1260538462</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -5091,26 +4085,14 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>14.00000000000002</v>
-      </c>
-      <c r="K95" t="n">
-        <v>20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>26.32999999999999</v>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>26.21999999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,49 +4101,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C96" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E96" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F96" t="n">
-        <v>37816.7957</v>
+        <v>1800</v>
       </c>
       <c r="G96" t="n">
-        <v>26.0466666666667</v>
+        <v>134391.1260538462</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.1000000000000014</v>
-      </c>
-      <c r="J96" t="n">
-        <v>14.10000000000002</v>
-      </c>
-      <c r="K96" t="n">
-        <v>9.090909090908914</v>
-      </c>
-      <c r="L96" t="n">
-        <v>26.33999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>26.24499999999999</v>
-      </c>
-      <c r="N96" t="n">
-        <v>26.10666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,49 +4140,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="D97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="E97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F97" t="n">
-        <v>18000</v>
+        <v>736</v>
       </c>
       <c r="G97" t="n">
-        <v>26.05833333333336</v>
+        <v>133655.1260538462</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J97" t="n">
-        <v>14.30000000000003</v>
-      </c>
-      <c r="K97" t="n">
-        <v>16.66666666666686</v>
-      </c>
-      <c r="L97" t="n">
-        <v>26.36999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>26.27999999999999</v>
-      </c>
-      <c r="N97" t="n">
-        <v>26.12333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,49 +4179,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
-        <v>19502.3712</v>
+        <v>95420.965</v>
       </c>
       <c r="G98" t="n">
-        <v>26.0716666666667</v>
+        <v>38234.16105384618</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J98" t="n">
-        <v>14.30000000000003</v>
-      </c>
-      <c r="K98" t="n">
-        <v>40.00000000000007</v>
-      </c>
-      <c r="L98" t="n">
-        <v>26.39</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="N98" t="n">
-        <v>26.14333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,49 +4218,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="E99" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F99" t="n">
-        <v>30223.1507</v>
+        <v>226196.5915</v>
       </c>
       <c r="G99" t="n">
-        <v>26.08666666666669</v>
+        <v>38234.16105384618</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J99" t="n">
-        <v>14.30000000000003</v>
-      </c>
-      <c r="K99" t="n">
-        <v>25.00000000000022</v>
-      </c>
-      <c r="L99" t="n">
-        <v>26.43</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="N99" t="n">
-        <v>26.16333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,49 +4257,784 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.7</v>
+        <v>26</v>
       </c>
       <c r="C100" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="D100" t="n">
-        <v>26.8</v>
+        <v>26</v>
       </c>
       <c r="E100" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="F100" t="n">
-        <v>17178</v>
+        <v>86778.451</v>
       </c>
       <c r="G100" t="n">
-        <v>26.10500000000003</v>
+        <v>38234.16105384618</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14.50000000000002</v>
-      </c>
-      <c r="K100" t="n">
-        <v>55.5555555555552</v>
-      </c>
-      <c r="L100" t="n">
-        <v>26.47000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>26.38</v>
-      </c>
-      <c r="N100" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18734.16105384618</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8152.6471</v>
+      </c>
+      <c r="G102" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1697.7058</v>
+      </c>
+      <c r="G103" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5300.992</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13508.9961</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2927.482146153818</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>44676.9485</v>
+      </c>
+      <c r="G106" t="n">
+        <v>41749.46635384618</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7300</v>
+      </c>
+      <c r="G107" t="n">
+        <v>41749.46635384618</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>26</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>26</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G108" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26</v>
+      </c>
+      <c r="D109" t="n">
+        <v>26</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6889.6007</v>
+      </c>
+      <c r="G109" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
+        <v>26</v>
+      </c>
+      <c r="D110" t="n">
+        <v>26</v>
+      </c>
+      <c r="E110" t="n">
+        <v>26</v>
+      </c>
+      <c r="F110" t="n">
+        <v>33522.1874</v>
+      </c>
+      <c r="G110" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100795.8065</v>
+      </c>
+      <c r="G111" t="n">
+        <v>150145.2728538462</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>36141.1536</v>
+      </c>
+      <c r="G112" t="n">
+        <v>114004.1192538462</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>115004.1192538462</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>117004.1192538462</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21930.6654</v>
+      </c>
+      <c r="G115" t="n">
+        <v>138934.7846538462</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1849.4901</v>
+      </c>
+      <c r="G116" t="n">
+        <v>137085.2945538462</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1999.9999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>137085.2945538462</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>37318.0385</v>
+      </c>
+      <c r="G118" t="n">
+        <v>174403.3330538462</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>173403.3330538462</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -886,6 +903,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -929,6 +947,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -956,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -997,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>26.1</v>
@@ -1013,6 +1033,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1054,6 +1075,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1097,6 +1119,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,6 +1163,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,6 +1207,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,6 +1251,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,6 +1295,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1312,6 +1339,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1355,6 +1383,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1398,6 +1427,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1441,6 +1471,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1484,6 +1515,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1527,6 +1559,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1570,6 +1603,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1613,6 +1647,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1654,6 +1689,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1695,6 +1731,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1722,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -1730,11 +1767,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0.995</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.023076923076923</v>
       </c>
     </row>
     <row r="35">
@@ -1766,17 +1806,12 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1807,17 +1842,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1848,17 +1878,12 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1889,17 +1914,12 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1930,17 +1950,12 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1971,17 +1986,12 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2012,17 +2022,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2053,17 +2058,12 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2094,17 +2094,12 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2135,17 +2130,12 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2176,17 +2166,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2217,17 +2202,12 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2258,17 +2238,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2299,17 +2274,12 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2340,17 +2310,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2381,17 +2346,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2422,17 +2382,12 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2463,17 +2418,12 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2504,17 +2454,12 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2545,17 +2490,12 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2586,17 +2526,12 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2627,17 +2562,12 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2668,17 +2598,12 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2706,20 +2631,15 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2750,17 +2670,12 @@
         <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>0.9873954372623575</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2788,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2796,6 +2711,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2831,6 +2747,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2866,6 +2783,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2893,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2901,6 +2819,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2936,6 +2855,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2971,6 +2891,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3006,6 +2927,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3041,6 +2963,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3076,6 +2999,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3111,6 +3035,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3146,6 +3071,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3181,6 +3107,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,6 +3143,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3251,6 +3179,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,6 +3215,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3321,6 +3251,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3356,6 +3287,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3391,6 +3323,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3432,6 +3365,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3471,6 +3405,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3510,6 +3445,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3549,6 +3485,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3588,6 +3525,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3627,6 +3565,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3666,6 +3605,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3705,6 +3645,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3744,6 +3685,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3783,6 +3725,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3822,6 +3765,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3861,6 +3805,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3900,6 +3845,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3939,6 +3885,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3978,6 +3925,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4017,6 +3965,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4056,6 +4005,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4095,6 +4045,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4134,6 +4085,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4173,6 +4125,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4212,6 +4165,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4251,6 +4205,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4290,6 +4245,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4329,6 +4285,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4368,6 +4325,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4407,6 +4365,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4446,6 +4405,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4485,6 +4445,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4526,6 +4487,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4567,6 +4529,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4608,6 +4571,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4647,6 +4611,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4686,6 +4651,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4725,6 +4691,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4764,6 +4731,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4803,6 +4771,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4842,6 +4811,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4881,6 +4851,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4920,6 +4891,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4959,6 +4931,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4998,6 +4971,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5037,6 +5011,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="C2" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="D2" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="E2" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="F2" t="n">
-        <v>42215.9286</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>292027.2537999999</v>
+        <v>32140.11389999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="C3" t="n">
         <v>26.4</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E3" t="n">
         <v>26.4</v>
       </c>
       <c r="F3" t="n">
-        <v>5175.4145</v>
+        <v>26675</v>
       </c>
       <c r="G3" t="n">
-        <v>286851.8392999999</v>
+        <v>5465.113899999982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -522,16 +522,16 @@
         <v>26.4</v>
       </c>
       <c r="F4" t="n">
-        <v>48201.7287</v>
+        <v>6345</v>
       </c>
       <c r="G4" t="n">
-        <v>286851.8392999999</v>
+        <v>5465.113899999982</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D5" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F5" t="n">
-        <v>102273.7161</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="n">
-        <v>286851.8392999999</v>
+        <v>-19534.88610000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,19 +594,23 @@
         <v>26.4</v>
       </c>
       <c r="F6" t="n">
-        <v>38617.2537</v>
+        <v>73806.6666</v>
       </c>
       <c r="G6" t="n">
-        <v>286851.8392999999</v>
+        <v>54271.78049999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.3</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +622,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C7" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E7" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F7" t="n">
-        <v>25536.4904</v>
+        <v>2342.2018</v>
       </c>
       <c r="G7" t="n">
-        <v>261315.3488999999</v>
+        <v>54271.78049999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +666,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E8" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F8" t="n">
-        <v>13421.4833</v>
+        <v>46656.3842</v>
       </c>
       <c r="G8" t="n">
-        <v>261315.3488999999</v>
+        <v>100928.1647</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,28 +710,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D9" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E9" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1126.9594</v>
+        <v>23876.283</v>
       </c>
       <c r="G9" t="n">
-        <v>261315.3488999999</v>
+        <v>100928.1647</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -729,25 +749,25 @@
         <v>26.4</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E10" t="n">
         <v>26.4</v>
       </c>
       <c r="F10" t="n">
-        <v>27881.7121</v>
+        <v>23300</v>
       </c>
       <c r="G10" t="n">
-        <v>289197.0609999999</v>
+        <v>100928.1647</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +782,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E11" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F11" t="n">
-        <v>10095.8712</v>
+        <v>40000</v>
       </c>
       <c r="G11" t="n">
-        <v>289197.0609999999</v>
+        <v>60928.16469999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +818,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F12" t="n">
-        <v>1296.6965</v>
+        <v>1607.7575</v>
       </c>
       <c r="G12" t="n">
-        <v>287900.3644999999</v>
+        <v>62535.92219999998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -837,25 +857,25 @@
         <v>26.2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F13" t="n">
-        <v>84432.83749999999</v>
+        <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>372333.2019999999</v>
+        <v>62235.92219999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,35 +890,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E14" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F14" t="n">
-        <v>820.7766</v>
+        <v>262</v>
       </c>
       <c r="G14" t="n">
-        <v>371512.4253999999</v>
+        <v>62497.92219999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -910,40 +926,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D15" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E15" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F15" t="n">
-        <v>79441.29270000001</v>
+        <v>5206.3149</v>
       </c>
       <c r="G15" t="n">
-        <v>450953.7180999999</v>
+        <v>67704.23709999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -954,38 +962,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D16" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E16" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3559</v>
+        <v>649</v>
       </c>
       <c r="G16" t="n">
-        <v>447394.7180999999</v>
+        <v>67704.23709999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,40 +998,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D17" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E17" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1274.2374</v>
+        <v>2528</v>
       </c>
       <c r="G17" t="n">
-        <v>447394.7180999999</v>
+        <v>67704.23709999998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1040,38 +1034,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C18" t="n">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E18" t="n">
-        <v>25.9</v>
+        <v>26.5</v>
       </c>
       <c r="F18" t="n">
-        <v>79242.68949999999</v>
+        <v>3112</v>
       </c>
       <c r="G18" t="n">
-        <v>368152.0286</v>
+        <v>67704.23709999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1082,40 +1070,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F19" t="n">
-        <v>654</v>
+        <v>95284.5833</v>
       </c>
       <c r="G19" t="n">
-        <v>368806.0286</v>
+        <v>162988.8204</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1126,40 +1106,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="C20" t="n">
-        <v>25.6</v>
+        <v>26.7</v>
       </c>
       <c r="D20" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="E20" t="n">
-        <v>25.6</v>
+        <v>26.7</v>
       </c>
       <c r="F20" t="n">
-        <v>165219.339</v>
+        <v>95070.7732</v>
       </c>
       <c r="G20" t="n">
-        <v>203586.6896</v>
+        <v>258059.5936</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>26</v>
-      </c>
-      <c r="K20" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1170,40 +1142,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="C21" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="D21" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="F21" t="n">
-        <v>81973.2182</v>
+        <v>2610.5938</v>
       </c>
       <c r="G21" t="n">
-        <v>285559.9077999999</v>
+        <v>258059.5936</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1214,40 +1178,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C22" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="D22" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
       <c r="E22" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F22" t="n">
-        <v>22438.8212</v>
+        <v>44334.1985</v>
       </c>
       <c r="G22" t="n">
-        <v>307998.7289999999</v>
+        <v>258059.5936</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1258,40 +1214,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>26.7</v>
       </c>
       <c r="D23" t="n">
-        <v>26.3</v>
+        <v>26.8</v>
       </c>
       <c r="E23" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="F23" t="n">
-        <v>2840</v>
+        <v>70923.79670000001</v>
       </c>
       <c r="G23" t="n">
-        <v>305158.7289999999</v>
+        <v>258059.5936</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1302,40 +1250,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="C24" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="D24" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="E24" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="F24" t="n">
-        <v>14939.9991</v>
+        <v>1032.3398</v>
       </c>
       <c r="G24" t="n">
-        <v>290218.7298999999</v>
+        <v>257027.2538</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>26</v>
-      </c>
-      <c r="K24" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1346,40 +1286,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C25" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D25" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E25" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F25" t="n">
-        <v>816</v>
+        <v>31930.7056</v>
       </c>
       <c r="G25" t="n">
-        <v>291034.7298999999</v>
+        <v>257027.2538</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1390,40 +1322,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D26" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E26" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>100402.3391</v>
       </c>
       <c r="G26" t="n">
-        <v>291034.7298999999</v>
+        <v>257027.2538</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1434,40 +1358,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C27" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D27" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E27" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F27" t="n">
-        <v>6200</v>
+        <v>3478</v>
       </c>
       <c r="G27" t="n">
-        <v>291034.7298999999</v>
+        <v>257027.2538</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1478,40 +1394,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C28" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D28" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E28" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F28" t="n">
-        <v>25213.5316</v>
+        <v>112.7819</v>
       </c>
       <c r="G28" t="n">
-        <v>291034.7298999999</v>
+        <v>257027.2538</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1522,40 +1430,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="C29" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="D29" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="E29" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F29" t="n">
-        <v>2492.0716</v>
+        <v>35000</v>
       </c>
       <c r="G29" t="n">
-        <v>293526.8014999999</v>
+        <v>292027.2537999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1566,40 +1466,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="C30" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="D30" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="E30" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F30" t="n">
-        <v>764.766</v>
+        <v>30542.4558</v>
       </c>
       <c r="G30" t="n">
-        <v>293526.8014999999</v>
+        <v>292027.2537999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1610,40 +1502,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="C31" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="D31" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="E31" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="F31" t="n">
-        <v>23700</v>
+        <v>42215.9286</v>
       </c>
       <c r="G31" t="n">
-        <v>317226.8014999999</v>
+        <v>292027.2537999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1654,22 +1538,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="C32" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D32" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E32" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>5175.4145</v>
       </c>
       <c r="G32" t="n">
-        <v>317236.8014999999</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1678,14 +1562,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C33" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D33" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E33" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F33" t="n">
-        <v>9233.3207</v>
+        <v>48201.7287</v>
       </c>
       <c r="G33" t="n">
-        <v>317236.8014999999</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1720,14 +1598,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,66 +1610,58 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C34" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D34" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E34" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F34" t="n">
-        <v>7715.4372</v>
+        <v>102273.7161</v>
       </c>
       <c r="G34" t="n">
-        <v>309521.3643</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.023076923076923</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1512.7117</v>
+        <v>38617.2537</v>
       </c>
       <c r="G35" t="n">
-        <v>308008.6526</v>
+        <v>286851.8392999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1818,22 +1682,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C36" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D36" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F36" t="n">
-        <v>16874.3653</v>
+        <v>25536.4904</v>
       </c>
       <c r="G36" t="n">
-        <v>291134.2873</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1854,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F37" t="n">
-        <v>9210.2374</v>
+        <v>13421.4833</v>
       </c>
       <c r="G37" t="n">
-        <v>281924.0499</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1890,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C38" t="n">
         <v>26.2</v>
@@ -1899,13 +1763,13 @@
         <v>26.2</v>
       </c>
       <c r="E38" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F38" t="n">
-        <v>110000</v>
+        <v>1126.9594</v>
       </c>
       <c r="G38" t="n">
-        <v>391924.0499</v>
+        <v>261315.3488999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1926,22 +1790,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>27881.7121</v>
       </c>
       <c r="G39" t="n">
-        <v>391934.0499</v>
+        <v>289197.0609999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1974,16 +1838,16 @@
         <v>26.4</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>10095.8712</v>
       </c>
       <c r="G40" t="n">
-        <v>391944.0499</v>
+        <v>289197.0609999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1998,28 +1862,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D41" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E41" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F41" t="n">
-        <v>10941.987</v>
+        <v>1296.6965</v>
       </c>
       <c r="G41" t="n">
-        <v>381002.0629</v>
+        <v>287900.3644999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2034,22 +1898,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C42" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D42" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E42" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F42" t="n">
-        <v>7380.45</v>
+        <v>84432.83749999999</v>
       </c>
       <c r="G42" t="n">
-        <v>388382.5129</v>
+        <v>372333.2019999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2070,22 +1934,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C43" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D43" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F43" t="n">
-        <v>3700</v>
+        <v>820.7766</v>
       </c>
       <c r="G43" t="n">
-        <v>388382.5129</v>
+        <v>371512.4253999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2106,22 +1970,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D44" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E44" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F44" t="n">
-        <v>807.4896</v>
+        <v>79441.29270000001</v>
       </c>
       <c r="G44" t="n">
-        <v>387575.0233</v>
+        <v>450953.7180999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2142,28 +2006,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C45" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F45" t="n">
-        <v>2300</v>
+        <v>3559</v>
       </c>
       <c r="G45" t="n">
-        <v>389875.0233</v>
+        <v>447394.7180999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2178,22 +2042,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C46" t="n">
         <v>26.1</v>
       </c>
       <c r="D46" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E46" t="n">
         <v>26.1</v>
       </c>
       <c r="F46" t="n">
-        <v>94515.4016</v>
+        <v>1274.2374</v>
       </c>
       <c r="G46" t="n">
-        <v>295359.6217</v>
+        <v>447394.7180999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2214,28 +2078,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D47" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E47" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>79242.68949999999</v>
       </c>
       <c r="G47" t="n">
-        <v>296359.6217</v>
+        <v>368152.0286</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2250,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>81</v>
+        <v>654</v>
       </c>
       <c r="G48" t="n">
-        <v>296359.6217</v>
+        <v>368806.0286</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2286,22 +2150,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C49" t="n">
-        <v>26.3</v>
+        <v>25.6</v>
       </c>
       <c r="D49" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="E49" t="n">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
       <c r="F49" t="n">
-        <v>80949.0114</v>
+        <v>165219.339</v>
       </c>
       <c r="G49" t="n">
-        <v>377308.6331</v>
+        <v>203586.6896</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2325,19 +2189,19 @@
         <v>26</v>
       </c>
       <c r="C50" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D50" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E50" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F50" t="n">
-        <v>80746.6388</v>
+        <v>81973.2182</v>
       </c>
       <c r="G50" t="n">
-        <v>296561.9943</v>
+        <v>285559.9077999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2358,22 +2222,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D51" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E51" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F51" t="n">
-        <v>1264.4039</v>
+        <v>22438.8212</v>
       </c>
       <c r="G51" t="n">
-        <v>297826.3982</v>
+        <v>307998.7289999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2397,19 +2261,19 @@
         <v>26.2</v>
       </c>
       <c r="C52" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E52" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F52" t="n">
-        <v>22889.5038</v>
+        <v>2840</v>
       </c>
       <c r="G52" t="n">
-        <v>320715.902</v>
+        <v>305158.7289999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2430,22 +2294,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C53" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="D53" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="E53" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1897.6527</v>
+        <v>14939.9991</v>
       </c>
       <c r="G53" t="n">
-        <v>318818.2493</v>
+        <v>290218.7298999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2469,19 +2333,19 @@
         <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D54" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E54" t="n">
         <v>26</v>
       </c>
       <c r="F54" t="n">
-        <v>13400</v>
+        <v>816</v>
       </c>
       <c r="G54" t="n">
-        <v>332218.2493</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2502,22 +2366,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D55" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E55" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F55" t="n">
-        <v>1800</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>330418.2493</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2538,22 +2402,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C56" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D56" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E56" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>6200</v>
       </c>
       <c r="G56" t="n">
-        <v>330428.2493</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2574,22 +2438,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C57" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D57" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E57" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F57" t="n">
-        <v>68181.8181</v>
+        <v>25213.5316</v>
       </c>
       <c r="G57" t="n">
-        <v>398610.0674000001</v>
+        <v>291034.7298999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2610,28 +2474,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="C58" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="D58" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="E58" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>2492.0716</v>
       </c>
       <c r="G58" t="n">
-        <v>398620.0674000001</v>
+        <v>293526.8014999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2649,25 +2513,25 @@
         <v>26.2</v>
       </c>
       <c r="C59" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D59" t="n">
         <v>26.2</v>
       </c>
       <c r="E59" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F59" t="n">
-        <v>1456.7816</v>
+        <v>764.766</v>
       </c>
       <c r="G59" t="n">
-        <v>397163.2858000001</v>
+        <v>293526.8014999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2682,28 +2546,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C60" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D60" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E60" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F60" t="n">
-        <v>6121.3977</v>
+        <v>23700</v>
       </c>
       <c r="G60" t="n">
-        <v>391041.8881000001</v>
+        <v>317226.8014999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2718,22 +2582,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C61" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E61" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F61" t="n">
-        <v>4194.5167</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>395236.4048000001</v>
+        <v>317236.8014999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2754,22 +2618,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="C62" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D62" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="E62" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F62" t="n">
-        <v>12962.2668</v>
+        <v>9233.3207</v>
       </c>
       <c r="G62" t="n">
-        <v>395236.4048000001</v>
+        <v>317236.8014999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2790,22 +2654,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C63" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D63" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E63" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F63" t="n">
-        <v>8737.4815</v>
+        <v>7715.4372</v>
       </c>
       <c r="G63" t="n">
-        <v>403973.8863000001</v>
+        <v>309521.3643</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2826,28 +2690,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C64" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E64" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F64" t="n">
-        <v>81028.0959</v>
+        <v>1512.7117</v>
       </c>
       <c r="G64" t="n">
-        <v>322945.7904000001</v>
+        <v>308008.6526</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2862,22 +2726,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C65" t="n">
         <v>26.1</v>
       </c>
       <c r="D65" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E65" t="n">
         <v>26.1</v>
       </c>
       <c r="F65" t="n">
-        <v>13839.7281</v>
+        <v>16874.3653</v>
       </c>
       <c r="G65" t="n">
-        <v>336785.5185000001</v>
+        <v>291134.2873</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2898,22 +2762,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D66" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="E66" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>1318.4368</v>
+        <v>9210.2374</v>
       </c>
       <c r="G66" t="n">
-        <v>335467.0817</v>
+        <v>281924.0499</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2934,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C67" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D67" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E67" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F67" t="n">
-        <v>581</v>
+        <v>110000</v>
       </c>
       <c r="G67" t="n">
-        <v>335467.0817</v>
+        <v>391924.0499</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2970,22 +2834,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C68" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="D68" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E68" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="F68" t="n">
-        <v>1953.7233</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>333513.3584</v>
+        <v>391934.0499</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3006,22 +2870,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="C69" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="D69" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="E69" t="n">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="F69" t="n">
-        <v>26097.3101</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>307416.0483</v>
+        <v>391944.0499</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3042,28 +2906,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="E70" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="F70" t="n">
-        <v>6614.7859</v>
+        <v>10941.987</v>
       </c>
       <c r="G70" t="n">
-        <v>307416.0483</v>
+        <v>381002.0629</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3078,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="C71" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="D71" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="E71" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="F71" t="n">
-        <v>29383.4145</v>
+        <v>7380.45</v>
       </c>
       <c r="G71" t="n">
-        <v>307416.0483</v>
+        <v>388382.5129</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3114,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="C72" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="D72" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="E72" t="n">
-        <v>25.4</v>
+        <v>26.1</v>
       </c>
       <c r="F72" t="n">
-        <v>268236.5238</v>
+        <v>3700</v>
       </c>
       <c r="G72" t="n">
-        <v>39179.5245</v>
+        <v>388382.5129</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3150,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="C73" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="D73" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="E73" t="n">
-        <v>25.4</v>
+        <v>26</v>
       </c>
       <c r="F73" t="n">
-        <v>42807.9807</v>
+        <v>807.4896</v>
       </c>
       <c r="G73" t="n">
-        <v>81987.5052</v>
+        <v>387575.0233</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3186,22 +3050,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D74" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E74" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F74" t="n">
-        <v>1153.846153846154</v>
+        <v>2300</v>
       </c>
       <c r="G74" t="n">
-        <v>83141.35135384616</v>
+        <v>389875.0233</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3222,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C75" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D75" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E75" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F75" t="n">
-        <v>13862</v>
+        <v>94515.4016</v>
       </c>
       <c r="G75" t="n">
-        <v>69279.35135384616</v>
+        <v>295359.6217</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3258,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C76" t="n">
         <v>26.2</v>
@@ -3267,13 +3131,13 @@
         <v>26.2</v>
       </c>
       <c r="E76" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F76" t="n">
-        <v>120017.8439</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>189297.1952538462</v>
+        <v>296359.6217</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3294,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F77" t="n">
-        <v>10700</v>
+        <v>81</v>
       </c>
       <c r="G77" t="n">
-        <v>178597.1952538462</v>
+        <v>296359.6217</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3330,1688 +3194,2670 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C78" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>80949.0114</v>
+      </c>
+      <c r="G78" t="n">
+        <v>377308.6331</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>26</v>
+      </c>
+      <c r="C79" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>26</v>
+      </c>
+      <c r="E79" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>80746.6388</v>
+      </c>
+      <c r="G79" t="n">
+        <v>296561.9943</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26</v>
+      </c>
+      <c r="C80" t="n">
+        <v>26</v>
+      </c>
+      <c r="D80" t="n">
+        <v>26</v>
+      </c>
+      <c r="E80" t="n">
+        <v>26</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1264.4039</v>
+      </c>
+      <c r="G80" t="n">
+        <v>297826.3982</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>22889.5038</v>
+      </c>
+      <c r="G81" t="n">
+        <v>320715.902</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>26</v>
+      </c>
+      <c r="C82" t="n">
+        <v>26</v>
+      </c>
+      <c r="D82" t="n">
+        <v>26</v>
+      </c>
+      <c r="E82" t="n">
+        <v>26</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1897.6527</v>
+      </c>
+      <c r="G82" t="n">
+        <v>318818.2493</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>26</v>
+      </c>
+      <c r="C83" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>26</v>
+      </c>
+      <c r="F83" t="n">
+        <v>13400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>332218.2493</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>26</v>
+      </c>
+      <c r="C84" t="n">
+        <v>26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>26</v>
+      </c>
+      <c r="E84" t="n">
+        <v>26</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G84" t="n">
+        <v>330418.2493</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="n">
+        <v>330428.2493</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>68181.8181</v>
+      </c>
+      <c r="G86" t="n">
+        <v>398610.0674000001</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="n">
+        <v>398620.0674000001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1456.7816</v>
+      </c>
+      <c r="G88" t="n">
+        <v>397163.2858000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>26</v>
+      </c>
+      <c r="C89" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>26</v>
+      </c>
+      <c r="E89" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6121.3977</v>
+      </c>
+      <c r="G89" t="n">
+        <v>391041.8881000001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>26</v>
+      </c>
+      <c r="C90" t="n">
+        <v>26</v>
+      </c>
+      <c r="D90" t="n">
+        <v>26</v>
+      </c>
+      <c r="E90" t="n">
+        <v>26</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4194.5167</v>
+      </c>
+      <c r="G90" t="n">
+        <v>395236.4048000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>26</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>26</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12962.2668</v>
+      </c>
+      <c r="G91" t="n">
+        <v>395236.4048000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8737.4815</v>
+      </c>
+      <c r="G92" t="n">
+        <v>403973.8863000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>26</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>26</v>
+      </c>
+      <c r="E93" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>81028.0959</v>
+      </c>
+      <c r="G93" t="n">
+        <v>322945.7904000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13839.7281</v>
+      </c>
+      <c r="G94" t="n">
+        <v>336785.5185000001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1318.4368</v>
+      </c>
+      <c r="G95" t="n">
+        <v>335467.0817</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>581</v>
+      </c>
+      <c r="G96" t="n">
+        <v>335467.0817</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1953.7233</v>
+      </c>
+      <c r="G97" t="n">
+        <v>333513.3584</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C98" t="n">
         <v>25.7</v>
       </c>
-      <c r="D78" t="n">
-        <v>26</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D98" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E98" t="n">
         <v>25.7</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F98" t="n">
+        <v>26097.3101</v>
+      </c>
+      <c r="G98" t="n">
+        <v>307416.0483</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D99" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6614.7859</v>
+      </c>
+      <c r="G99" t="n">
+        <v>307416.0483</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D100" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>29383.4145</v>
+      </c>
+      <c r="G100" t="n">
+        <v>307416.0483</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>268236.5238</v>
+      </c>
+      <c r="G101" t="n">
+        <v>39179.5245</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>42807.9807</v>
+      </c>
+      <c r="G102" t="n">
+        <v>81987.5052</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>26</v>
+      </c>
+      <c r="C103" t="n">
+        <v>26</v>
+      </c>
+      <c r="D103" t="n">
+        <v>26</v>
+      </c>
+      <c r="E103" t="n">
+        <v>26</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1153.846153846154</v>
+      </c>
+      <c r="G103" t="n">
+        <v>83141.35135384616</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13862</v>
+      </c>
+      <c r="G104" t="n">
+        <v>69279.35135384616</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>120017.8439</v>
+      </c>
+      <c r="G105" t="n">
+        <v>189297.1952538462</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10700</v>
+      </c>
+      <c r="G106" t="n">
+        <v>178597.1952538462</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>26</v>
+      </c>
+      <c r="E107" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F107" t="n">
         <v>62841.7906</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G107" t="n">
         <v>115755.4046538462</v>
       </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>26</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26</v>
+      </c>
+      <c r="D108" t="n">
+        <v>26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>26</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21990.921</v>
+      </c>
+      <c r="G108" t="n">
+        <v>137746.3256538462</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E109" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>10</v>
+      </c>
+      <c r="G109" t="n">
+        <v>137756.3256538462</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>126472.499</v>
+      </c>
+      <c r="G110" t="n">
+        <v>137756.3256538462</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>26</v>
+      </c>
+      <c r="C111" t="n">
+        <v>26</v>
+      </c>
+      <c r="D111" t="n">
+        <v>26</v>
+      </c>
+      <c r="E111" t="n">
+        <v>26</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25111.1721</v>
+      </c>
+      <c r="G111" t="n">
+        <v>112645.1535538462</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>26</v>
+      </c>
+      <c r="C112" t="n">
+        <v>26</v>
+      </c>
+      <c r="D112" t="n">
+        <v>26</v>
+      </c>
+      <c r="E112" t="n">
+        <v>26</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2185.8795</v>
+      </c>
+      <c r="G112" t="n">
+        <v>112645.1535538462</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26</v>
+      </c>
+      <c r="D113" t="n">
+        <v>26</v>
+      </c>
+      <c r="E113" t="n">
+        <v>26</v>
+      </c>
+      <c r="F113" t="n">
+        <v>835.1647</v>
+      </c>
+      <c r="G113" t="n">
+        <v>112645.1535538462</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>26</v>
+      </c>
+      <c r="C114" t="n">
+        <v>26</v>
+      </c>
+      <c r="D114" t="n">
+        <v>26</v>
+      </c>
+      <c r="E114" t="n">
+        <v>26</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15400</v>
+      </c>
+      <c r="G114" t="n">
+        <v>112645.1535538462</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>26</v>
+      </c>
+      <c r="E115" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G115" t="n">
+        <v>110945.1535538462</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1845.0456</v>
+      </c>
+      <c r="G116" t="n">
+        <v>112790.1991538462</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>108590.1991538462</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>26</v>
+      </c>
+      <c r="C118" t="n">
+        <v>26</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26</v>
+      </c>
+      <c r="E118" t="n">
+        <v>26</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2443.0149</v>
+      </c>
+      <c r="G118" t="n">
+        <v>111033.2140538462</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>26</v>
+      </c>
+      <c r="C119" t="n">
+        <v>26</v>
+      </c>
+      <c r="D119" t="n">
+        <v>26</v>
+      </c>
+      <c r="E119" t="n">
+        <v>26</v>
+      </c>
+      <c r="F119" t="n">
+        <v>7556.9851</v>
+      </c>
+      <c r="G119" t="n">
+        <v>111033.2140538462</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G120" t="n">
+        <v>113333.2140538462</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>26</v>
+      </c>
+      <c r="C121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26</v>
+      </c>
+      <c r="E121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>90949.2248</v>
+      </c>
+      <c r="G121" t="n">
+        <v>22383.98925384617</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F122" t="n">
+        <v>65320.7785</v>
+      </c>
+      <c r="G122" t="n">
+        <v>87704.76775384617</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>874</v>
+      </c>
+      <c r="G123" t="n">
+        <v>86830.76775384617</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>49360.3583</v>
+      </c>
+      <c r="G124" t="n">
+        <v>136191.1260538462</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G125" t="n">
+        <v>134391.1260538462</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>736</v>
+      </c>
+      <c r="G126" t="n">
+        <v>133655.1260538462</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>26</v>
+      </c>
+      <c r="C127" t="n">
+        <v>26</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26</v>
+      </c>
+      <c r="E127" t="n">
+        <v>26</v>
+      </c>
+      <c r="F127" t="n">
+        <v>95420.965</v>
+      </c>
+      <c r="G127" t="n">
+        <v>38234.16105384618</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>26</v>
+      </c>
+      <c r="C128" t="n">
+        <v>26</v>
+      </c>
+      <c r="D128" t="n">
+        <v>26</v>
+      </c>
+      <c r="E128" t="n">
+        <v>26</v>
+      </c>
+      <c r="F128" t="n">
+        <v>226196.5915</v>
+      </c>
+      <c r="G128" t="n">
+        <v>38234.16105384618</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>26</v>
+      </c>
+      <c r="C129" t="n">
+        <v>26</v>
+      </c>
+      <c r="D129" t="n">
+        <v>26</v>
+      </c>
+      <c r="E129" t="n">
+        <v>26</v>
+      </c>
+      <c r="F129" t="n">
+        <v>86778.451</v>
+      </c>
+      <c r="G129" t="n">
+        <v>38234.16105384618</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>19500</v>
+      </c>
+      <c r="G130" t="n">
+        <v>18734.16105384618</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8152.6471</v>
+      </c>
+      <c r="G131" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1697.7058</v>
+      </c>
+      <c r="G132" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5300.992</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10581.51395384618</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>13508.9961</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2927.482146153818</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K134" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>26</v>
-      </c>
-      <c r="C79" t="n">
-        <v>26</v>
-      </c>
-      <c r="D79" t="n">
-        <v>26</v>
-      </c>
-      <c r="E79" t="n">
-        <v>26</v>
-      </c>
-      <c r="F79" t="n">
-        <v>21990.921</v>
-      </c>
-      <c r="G79" t="n">
-        <v>137746.3256538462</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>44676.9485</v>
+      </c>
+      <c r="G135" t="n">
+        <v>41749.46635384618</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D80" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E80" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F80" t="n">
-        <v>10</v>
-      </c>
-      <c r="G80" t="n">
-        <v>137756.3256538462</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7300</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41749.46635384618</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K136" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>26</v>
-      </c>
-      <c r="C81" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>26</v>
+      </c>
+      <c r="C137" t="n">
+        <v>26</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>26</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G137" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
         <v>25.9</v>
       </c>
-      <c r="F81" t="n">
-        <v>126472.499</v>
-      </c>
-      <c r="G81" t="n">
-        <v>137756.3256538462</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K137" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>26</v>
-      </c>
-      <c r="C82" t="n">
-        <v>26</v>
-      </c>
-      <c r="D82" t="n">
-        <v>26</v>
-      </c>
-      <c r="E82" t="n">
-        <v>26</v>
-      </c>
-      <c r="F82" t="n">
-        <v>25111.1721</v>
-      </c>
-      <c r="G82" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>26</v>
+      </c>
+      <c r="C138" t="n">
+        <v>26</v>
+      </c>
+      <c r="D138" t="n">
+        <v>26</v>
+      </c>
+      <c r="E138" t="n">
+        <v>26</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6889.6007</v>
+      </c>
+      <c r="G138" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>26</v>
+      </c>
+      <c r="K138" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>26</v>
-      </c>
-      <c r="C83" t="n">
-        <v>26</v>
-      </c>
-      <c r="D83" t="n">
-        <v>26</v>
-      </c>
-      <c r="E83" t="n">
-        <v>26</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2185.8795</v>
-      </c>
-      <c r="G83" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>26</v>
+      </c>
+      <c r="C139" t="n">
+        <v>26</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26</v>
+      </c>
+      <c r="E139" t="n">
+        <v>26</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33522.1874</v>
+      </c>
+      <c r="G139" t="n">
+        <v>49349.46635384618</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>26</v>
+      </c>
+      <c r="K139" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>26</v>
-      </c>
-      <c r="C84" t="n">
-        <v>26</v>
-      </c>
-      <c r="D84" t="n">
-        <v>26</v>
-      </c>
-      <c r="E84" t="n">
-        <v>26</v>
-      </c>
-      <c r="F84" t="n">
-        <v>835.1647</v>
-      </c>
-      <c r="G84" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>26</v>
+      </c>
+      <c r="C140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>26</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100795.8065</v>
+      </c>
+      <c r="G140" t="n">
+        <v>150145.2728538462</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>26</v>
+      </c>
+      <c r="K140" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>26</v>
-      </c>
-      <c r="C85" t="n">
-        <v>26</v>
-      </c>
-      <c r="D85" t="n">
-        <v>26</v>
-      </c>
-      <c r="E85" t="n">
-        <v>26</v>
-      </c>
-      <c r="F85" t="n">
-        <v>15400</v>
-      </c>
-      <c r="G85" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>36141.1536</v>
+      </c>
+      <c r="G141" t="n">
+        <v>114004.1192538462</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>26</v>
-      </c>
-      <c r="C86" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D86" t="n">
-        <v>26</v>
-      </c>
-      <c r="E86" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G86" t="n">
-        <v>110945.1535538462</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>115004.1192538462</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1845.0456</v>
-      </c>
-      <c r="G87" t="n">
-        <v>112790.1991538462</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>117004.1192538462</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F88" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G88" t="n">
-        <v>108590.1991538462</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21930.6654</v>
+      </c>
+      <c r="G144" t="n">
+        <v>138934.7846538462</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>26</v>
-      </c>
-      <c r="C89" t="n">
-        <v>26</v>
-      </c>
-      <c r="D89" t="n">
-        <v>26</v>
-      </c>
-      <c r="E89" t="n">
-        <v>26</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2443.0149</v>
-      </c>
-      <c r="G89" t="n">
-        <v>111033.2140538462</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1849.4901</v>
+      </c>
+      <c r="G145" t="n">
+        <v>137085.2945538462</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>26</v>
-      </c>
-      <c r="C90" t="n">
-        <v>26</v>
-      </c>
-      <c r="D90" t="n">
-        <v>26</v>
-      </c>
-      <c r="E90" t="n">
-        <v>26</v>
-      </c>
-      <c r="F90" t="n">
-        <v>7556.9851</v>
-      </c>
-      <c r="G90" t="n">
-        <v>111033.2140538462</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1999.9999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>137085.2945538462</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2300</v>
-      </c>
-      <c r="G91" t="n">
-        <v>113333.2140538462</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>37318.0385</v>
+      </c>
+      <c r="G147" t="n">
+        <v>174403.3330538462</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>26</v>
-      </c>
-      <c r="C92" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D92" t="n">
-        <v>26</v>
-      </c>
-      <c r="E92" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F92" t="n">
-        <v>90949.2248</v>
-      </c>
-      <c r="G92" t="n">
-        <v>22383.98925384617</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>173403.3330538462</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D93" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E93" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>65320.7785</v>
-      </c>
-      <c r="G93" t="n">
-        <v>87704.76775384617</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>874</v>
-      </c>
-      <c r="G94" t="n">
-        <v>86830.76775384617</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>49360.3583</v>
-      </c>
-      <c r="G95" t="n">
-        <v>136191.1260538462</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G96" t="n">
-        <v>134391.1260538462</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>736</v>
-      </c>
-      <c r="G97" t="n">
-        <v>133655.1260538462</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>26</v>
-      </c>
-      <c r="C98" t="n">
-        <v>26</v>
-      </c>
-      <c r="D98" t="n">
-        <v>26</v>
-      </c>
-      <c r="E98" t="n">
-        <v>26</v>
-      </c>
-      <c r="F98" t="n">
-        <v>95420.965</v>
-      </c>
-      <c r="G98" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>26</v>
-      </c>
-      <c r="C99" t="n">
-        <v>26</v>
-      </c>
-      <c r="D99" t="n">
-        <v>26</v>
-      </c>
-      <c r="E99" t="n">
-        <v>26</v>
-      </c>
-      <c r="F99" t="n">
-        <v>226196.5915</v>
-      </c>
-      <c r="G99" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>26</v>
-      </c>
-      <c r="C100" t="n">
-        <v>26</v>
-      </c>
-      <c r="D100" t="n">
-        <v>26</v>
-      </c>
-      <c r="E100" t="n">
-        <v>26</v>
-      </c>
-      <c r="F100" t="n">
-        <v>86778.451</v>
-      </c>
-      <c r="G100" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C101" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E101" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="G101" t="n">
-        <v>18734.16105384618</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>8152.6471</v>
-      </c>
-      <c r="G102" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1697.7058</v>
-      </c>
-      <c r="G103" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5300.992</v>
-      </c>
-      <c r="G104" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="C105" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="D105" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="E105" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F105" t="n">
-        <v>13508.9961</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-2927.482146153818</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F106" t="n">
-        <v>44676.9485</v>
-      </c>
-      <c r="G106" t="n">
-        <v>41749.46635384618</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7300</v>
-      </c>
-      <c r="G107" t="n">
-        <v>41749.46635384618</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>26</v>
-      </c>
-      <c r="C108" t="n">
-        <v>26</v>
-      </c>
-      <c r="D108" t="n">
-        <v>26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>26</v>
-      </c>
-      <c r="F108" t="n">
-        <v>7600</v>
-      </c>
-      <c r="G108" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>26</v>
-      </c>
-      <c r="C109" t="n">
-        <v>26</v>
-      </c>
-      <c r="D109" t="n">
-        <v>26</v>
-      </c>
-      <c r="E109" t="n">
-        <v>26</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6889.6007</v>
-      </c>
-      <c r="G109" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>26</v>
-      </c>
-      <c r="C110" t="n">
-        <v>26</v>
-      </c>
-      <c r="D110" t="n">
-        <v>26</v>
-      </c>
-      <c r="E110" t="n">
-        <v>26</v>
-      </c>
-      <c r="F110" t="n">
-        <v>33522.1874</v>
-      </c>
-      <c r="G110" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>26</v>
-      </c>
-      <c r="C111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>26</v>
-      </c>
-      <c r="F111" t="n">
-        <v>100795.8065</v>
-      </c>
-      <c r="G111" t="n">
-        <v>150145.2728538462</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>36141.1536</v>
-      </c>
-      <c r="G112" t="n">
-        <v>114004.1192538462</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>115004.1192538462</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G114" t="n">
-        <v>117004.1192538462</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C115" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>21930.6654</v>
-      </c>
-      <c r="G115" t="n">
-        <v>138934.7846538462</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D116" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1849.4901</v>
-      </c>
-      <c r="G116" t="n">
-        <v>137085.2945538462</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E117" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1999.9999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>137085.2945538462</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C118" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F118" t="n">
-        <v>37318.0385</v>
-      </c>
-      <c r="G118" t="n">
-        <v>174403.3330538462</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G119" t="n">
-        <v>173403.3330538462</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,24 +618,13 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -684,26 +649,15 @@
         <v>100928.1647</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,18 +1111,15 @@
         <v>258059.5936</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,18 +1144,15 @@
         <v>258059.5936</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,18 +1177,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,18 +1210,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,18 +1243,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,18 +1276,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2710,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,18 +2530,15 @@
         <v>291134.2873</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,18 +2926,15 @@
         <v>296359.6217</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,18 +3322,15 @@
         <v>391041.8881000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,18 +3454,15 @@
         <v>322945.7904000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4078,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4114,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4186,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4328,18 +3982,15 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4546,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4906,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4942,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4978,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5050,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5122,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5192,22 +4774,15 @@
         <v>10581.51395384618</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K133" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5232,26 +4807,21 @@
         <v>-2927.482146153818</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
         <v>25.7</v>
       </c>
-      <c r="K134" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5276,26 +4846,21 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
         <v>25.4</v>
       </c>
-      <c r="K135" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5320,26 +4885,19 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K136" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5364,26 +4922,21 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
         <v>25.9</v>
       </c>
-      <c r="K137" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,26 +4961,19 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>26</v>
-      </c>
-      <c r="K138" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5452,26 +4998,19 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>26</v>
-      </c>
-      <c r="K139" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5496,26 +5035,19 @@
         <v>150145.2728538462</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>26</v>
-      </c>
-      <c r="K140" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5542,22 +5074,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5582,26 +5109,19 @@
         <v>115004.1192538462</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K142" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5628,22 +5148,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5668,26 +5183,19 @@
         <v>138934.7846538462</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K144" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L144" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5714,22 +5222,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5756,22 +5259,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5796,26 +5294,19 @@
         <v>174403.3330538462</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5842,24 +5333,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>257027.2538</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>287900.3644999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>372333.2019999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>371512.4253999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>450953.7180999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>368152.0286</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>368806.0286</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>203586.6896</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>285559.9077999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>307998.7289999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>305158.7289999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>290218.7298999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>293526.8014999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>293526.8014999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>317226.8014999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>317236.8014999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>317236.8014999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>309521.3643</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>308008.6526</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>291134.2873</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>281924.0499</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>391924.0499</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>391934.0499</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>391944.0499</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>381002.0629</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>388382.5129</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>388382.5129</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>387575.0233</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>389875.0233</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>295359.6217</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>296359.6217</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>296359.6217</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>377308.6331</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>296561.9943</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>297826.3982</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>320715.902</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>318818.2493</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>332218.2493</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>330418.2493</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>398610.0674000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>398620.0674000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>397163.2858000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>391041.8881000001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>395236.4048000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>395236.4048000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>403973.8863000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>322945.7904000001</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>335467.0817</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>335467.0817</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>333513.3584</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>39179.5245</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>112645.1535538462</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4807,17 +4807,11 @@
         <v>-2927.482146153818</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>25.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4846,17 +4840,11 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>25.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4922,17 +4906,11 @@
         <v>49349.46635384618</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4965,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5002,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5039,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5113,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5150,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5187,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5261,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5298,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5335,17 +5273,13 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-19534.88610000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>258059.5936</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,11 +1144,17 @@
         <v>258059.5936</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1183,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1220,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1257,17 @@
         <v>257027.2538</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1296,17 @@
         <v>257027.2538</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1335,15 @@
         <v>257027.2538</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1372,15 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1409,15 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1446,15 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1483,15 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1520,15 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1561,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1594,15 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1631,15 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1668,15 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1705,15 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1742,15 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1779,15 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1816,15 @@
         <v>287900.3644999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1853,15 @@
         <v>372333.2019999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1890,15 @@
         <v>371512.4253999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1927,15 @@
         <v>450953.7180999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1964,15 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2001,15 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2038,15 @@
         <v>368152.0286</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2075,15 @@
         <v>368806.0286</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2112,15 @@
         <v>203586.6896</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2149,15 @@
         <v>285559.9077999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2186,17 @@
         <v>307998.7289999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2225,15 @@
         <v>305158.7289999999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2262,15 @@
         <v>290218.7298999999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2299,15 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2336,17 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2375,17 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2414,15 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2451,15 @@
         <v>293526.8014999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2488,15 @@
         <v>293526.8014999999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2525,15 @@
         <v>317226.8014999999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2562,15 @@
         <v>317236.8014999999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2599,15 @@
         <v>317236.8014999999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2636,15 @@
         <v>309521.3643</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2673,15 @@
         <v>308008.6526</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2710,15 @@
         <v>291134.2873</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2747,15 @@
         <v>281924.0499</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2784,15 @@
         <v>391924.0499</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2821,15 @@
         <v>391934.0499</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2858,15 @@
         <v>391944.0499</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2895,15 @@
         <v>381002.0629</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2932,15 @@
         <v>388382.5129</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2969,15 @@
         <v>388382.5129</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3006,15 @@
         <v>387575.0233</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3043,15 @@
         <v>389875.0233</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3080,15 @@
         <v>295359.6217</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3117,15 @@
         <v>296359.6217</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3154,15 @@
         <v>296359.6217</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3191,15 @@
         <v>377308.6331</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3228,15 @@
         <v>296561.9943</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3265,15 @@
         <v>297826.3982</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3302,15 @@
         <v>320715.902</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3339,15 @@
         <v>318818.2493</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3376,15 @@
         <v>332218.2493</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3413,15 @@
         <v>330418.2493</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3454,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3487,15 @@
         <v>398610.0674000001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3524,15 @@
         <v>398620.0674000001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3561,15 @@
         <v>397163.2858000001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3598,15 @@
         <v>391041.8881000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3635,15 @@
         <v>395236.4048000001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3672,15 @@
         <v>395236.4048000001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3709,15 @@
         <v>403973.8863000001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3750,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3787,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3820,15 @@
         <v>335467.0817</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,10 +3861,12 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3586,7 +3892,7 @@
         <v>333513.3584</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3925,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3958,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3991,7 @@
         <v>307416.0483</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +4024,7 @@
         <v>39179.5245</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4048,7 +4354,7 @@
         <v>112645.1535538462</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -5071,7 +5377,7 @@
         <v>115004.1192538462</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5410,7 @@
         <v>117004.1192538462</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5443,7 @@
         <v>138934.7846538462</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5476,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5509,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5542,7 @@
         <v>174403.3330538462</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5575,7 @@
         <v>173403.3330538462</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5280,6 +5586,6 @@
       <c r="M148" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -451,7 +451,7 @@
         <v>32140.11389999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,10 +517,14 @@
         <v>5465.113899999982</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.4</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -550,11 +554,19 @@
         <v>-19534.88610000002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,19 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,10 +636,14 @@
         <v>54271.78049999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26.4</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +673,19 @@
         <v>100928.1647</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +717,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -781,10 +819,14 @@
         <v>62535.92219999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -817,8 +859,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +895,19 @@
         <v>62497.92219999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1035,14 @@
         <v>67704.23709999998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1015,8 +1075,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1114,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1153,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1192,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,15 +1228,15 @@
         <v>258059.5936</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1186,7 +1270,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1223,7 +1309,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1257,12 +1345,12 @@
         <v>257027.2538</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1296,12 +1384,12 @@
         <v>257027.2538</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,7 +1426,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1375,7 +1465,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1409,17 +1501,19 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>26.5</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.9987735849056604</v>
       </c>
       <c r="M30" t="inlineStr"/>
     </row>
@@ -1446,15 +1540,11 @@
         <v>292027.2537999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1483,15 +1573,11 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1520,15 +1606,11 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1557,15 +1639,11 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1594,15 +1672,11 @@
         <v>286851.8392999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1631,15 +1705,11 @@
         <v>261315.3488999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1742,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1709,11 +1775,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1746,11 +1808,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1779,15 +1837,11 @@
         <v>289197.0609999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1816,15 +1870,11 @@
         <v>287900.3644999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1853,15 +1903,11 @@
         <v>372333.2019999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1890,15 +1936,11 @@
         <v>371512.4253999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1927,15 +1969,11 @@
         <v>450953.7180999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,15 +2002,11 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2001,15 +2035,11 @@
         <v>447394.7180999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2042,11 +2072,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2079,11 +2105,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2116,11 +2138,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2153,11 +2171,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2186,17 +2200,11 @@
         <v>307998.7289999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2237,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2270,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2303,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2336,17 +2332,11 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2375,17 +2365,11 @@
         <v>291034.7298999999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2402,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2435,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2468,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2501,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2534,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2567,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2600,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2633,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2666,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2699,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2732,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2765,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2798,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2831,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2864,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2897,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2930,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2963,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +2996,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +3029,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3062,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +3095,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +3128,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +3161,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +3194,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3227,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3260,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3293,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3326,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3491,11 +3359,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3392,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3425,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3458,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3491,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3524,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3713,11 +3557,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3590,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3623,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3656,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3857,16 +3685,14 @@
         <v>335467.0817</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -4321,7 +4147,7 @@
         <v>137756.3256538462</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5146,10 +4972,14 @@
         <v>41749.46635384618</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>25.4</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -5182,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5377,7 +5219,7 @@
         <v>115004.1192538462</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5410,7 +5252,7 @@
         <v>117004.1192538462</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5443,7 +5285,7 @@
         <v>138934.7846538462</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5476,7 +5318,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5509,7 +5351,7 @@
         <v>137085.2945538462</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5542,7 +5384,7 @@
         <v>174403.3330538462</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5575,7 +5417,7 @@
         <v>173403.3330538462</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-31 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>32140.11389999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>26675</v>
       </c>
       <c r="G3" t="n">
-        <v>5465.113899999982</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,22 +503,15 @@
         <v>6345</v>
       </c>
       <c r="G4" t="n">
-        <v>5465.113899999982</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,26 +533,15 @@
         <v>25000</v>
       </c>
       <c r="G5" t="n">
-        <v>-19534.88610000002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,26 +563,15 @@
         <v>73806.6666</v>
       </c>
       <c r="G6" t="n">
-        <v>54271.78049999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +593,15 @@
         <v>2342.2018</v>
       </c>
       <c r="G7" t="n">
-        <v>54271.78049999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,26 +623,15 @@
         <v>46656.3842</v>
       </c>
       <c r="G8" t="n">
-        <v>100928.1647</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,24 +653,15 @@
         <v>23876.283</v>
       </c>
       <c r="G9" t="n">
-        <v>100928.1647</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +683,15 @@
         <v>23300</v>
       </c>
       <c r="G10" t="n">
-        <v>100928.1647</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +713,15 @@
         <v>40000</v>
       </c>
       <c r="G11" t="n">
-        <v>60928.16469999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +743,15 @@
         <v>1607.7575</v>
       </c>
       <c r="G12" t="n">
-        <v>62535.92219999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -853,24 +773,15 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>62235.92219999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -892,26 +803,15 @@
         <v>262</v>
       </c>
       <c r="G14" t="n">
-        <v>62497.92219999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -933,18 +833,15 @@
         <v>5206.3149</v>
       </c>
       <c r="G15" t="n">
-        <v>67704.23709999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -966,18 +863,15 @@
         <v>649</v>
       </c>
       <c r="G16" t="n">
-        <v>67704.23709999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -999,18 +893,15 @@
         <v>2528</v>
       </c>
       <c r="G17" t="n">
-        <v>67704.23709999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,22 +923,15 @@
         <v>3112</v>
       </c>
       <c r="G18" t="n">
-        <v>67704.23709999998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1069,24 +953,15 @@
         <v>95284.5833</v>
       </c>
       <c r="G19" t="n">
-        <v>162988.8204</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,24 +983,15 @@
         <v>95070.7732</v>
       </c>
       <c r="G20" t="n">
-        <v>258059.5936</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1147,24 +1013,15 @@
         <v>2610.5938</v>
       </c>
       <c r="G21" t="n">
-        <v>258059.5936</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1186,24 +1043,15 @@
         <v>44334.1985</v>
       </c>
       <c r="G22" t="n">
-        <v>258059.5936</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1225,24 +1073,15 @@
         <v>70923.79670000001</v>
       </c>
       <c r="G23" t="n">
-        <v>258059.5936</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,24 +1103,15 @@
         <v>1032.3398</v>
       </c>
       <c r="G24" t="n">
-        <v>257027.2538</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1303,24 +1133,15 @@
         <v>31930.7056</v>
       </c>
       <c r="G25" t="n">
-        <v>257027.2538</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,24 +1163,15 @@
         <v>100402.3391</v>
       </c>
       <c r="G26" t="n">
-        <v>257027.2538</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1381,24 +1193,15 @@
         <v>3478</v>
       </c>
       <c r="G27" t="n">
-        <v>257027.2538</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1420,24 +1223,15 @@
         <v>112.7819</v>
       </c>
       <c r="G28" t="n">
-        <v>257027.2538</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1459,24 +1253,15 @@
         <v>35000</v>
       </c>
       <c r="G29" t="n">
-        <v>292027.2537999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1498,24 +1283,15 @@
         <v>30542.4558</v>
       </c>
       <c r="G30" t="n">
-        <v>292027.2537999999</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>0.9987735849056604</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1537,18 +1313,15 @@
         <v>42215.9286</v>
       </c>
       <c r="G31" t="n">
-        <v>292027.2537999999</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,18 +1343,15 @@
         <v>5175.4145</v>
       </c>
       <c r="G32" t="n">
-        <v>286851.8392999999</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1603,18 +1373,15 @@
         <v>48201.7287</v>
       </c>
       <c r="G33" t="n">
-        <v>286851.8392999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,18 +1403,15 @@
         <v>102273.7161</v>
       </c>
       <c r="G34" t="n">
-        <v>286851.8392999999</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1669,18 +1433,15 @@
         <v>38617.2537</v>
       </c>
       <c r="G35" t="n">
-        <v>286851.8392999999</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,18 +1463,15 @@
         <v>25536.4904</v>
       </c>
       <c r="G36" t="n">
-        <v>261315.3488999999</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1735,18 +1493,15 @@
         <v>13421.4833</v>
       </c>
       <c r="G37" t="n">
-        <v>261315.3488999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1768,18 +1523,15 @@
         <v>1126.9594</v>
       </c>
       <c r="G38" t="n">
-        <v>261315.3488999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1801,18 +1553,15 @@
         <v>27881.7121</v>
       </c>
       <c r="G39" t="n">
-        <v>289197.0609999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1834,18 +1583,15 @@
         <v>10095.8712</v>
       </c>
       <c r="G40" t="n">
-        <v>289197.0609999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1867,18 +1613,15 @@
         <v>1296.6965</v>
       </c>
       <c r="G41" t="n">
-        <v>287900.3644999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1900,18 +1643,15 @@
         <v>84432.83749999999</v>
       </c>
       <c r="G42" t="n">
-        <v>372333.2019999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1933,18 +1673,15 @@
         <v>820.7766</v>
       </c>
       <c r="G43" t="n">
-        <v>371512.4253999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1966,18 +1703,15 @@
         <v>79441.29270000001</v>
       </c>
       <c r="G44" t="n">
-        <v>450953.7180999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1999,18 +1733,15 @@
         <v>3559</v>
       </c>
       <c r="G45" t="n">
-        <v>447394.7180999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2032,18 +1763,19 @@
         <v>1274.2374</v>
       </c>
       <c r="G46" t="n">
-        <v>447394.7180999999</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2065,18 +1797,23 @@
         <v>79242.68949999999</v>
       </c>
       <c r="G47" t="n">
-        <v>368152.0286</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2098,18 +1835,23 @@
         <v>654</v>
       </c>
       <c r="G48" t="n">
-        <v>368806.0286</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2131,18 +1873,23 @@
         <v>165219.339</v>
       </c>
       <c r="G49" t="n">
-        <v>203586.6896</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2164,18 +1911,23 @@
         <v>81973.2182</v>
       </c>
       <c r="G50" t="n">
-        <v>285559.9077999999</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,18 +1949,23 @@
         <v>22438.8212</v>
       </c>
       <c r="G51" t="n">
-        <v>307998.7289999999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,18 +1987,21 @@
         <v>2840</v>
       </c>
       <c r="G52" t="n">
-        <v>305158.7289999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,18 +2023,21 @@
         <v>14939.9991</v>
       </c>
       <c r="G53" t="n">
-        <v>290218.7298999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2296,18 +2059,23 @@
         <v>816</v>
       </c>
       <c r="G54" t="n">
-        <v>291034.7298999999</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>25.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2329,18 +2097,23 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>291034.7298999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2362,18 +2135,23 @@
         <v>6200</v>
       </c>
       <c r="G56" t="n">
-        <v>291034.7298999999</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2395,18 +2173,23 @@
         <v>25213.5316</v>
       </c>
       <c r="G57" t="n">
-        <v>291034.7298999999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2428,18 +2211,23 @@
         <v>2492.0716</v>
       </c>
       <c r="G58" t="n">
-        <v>293526.8014999999</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2461,18 +2249,21 @@
         <v>764.766</v>
       </c>
       <c r="G59" t="n">
-        <v>293526.8014999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2494,18 +2285,21 @@
         <v>23700</v>
       </c>
       <c r="G60" t="n">
-        <v>317226.8014999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,18 +2321,21 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>317236.8014999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2560,18 +2357,21 @@
         <v>9233.3207</v>
       </c>
       <c r="G62" t="n">
-        <v>317236.8014999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2593,18 +2393,21 @@
         <v>7715.4372</v>
       </c>
       <c r="G63" t="n">
-        <v>309521.3643</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2626,18 +2429,21 @@
         <v>1512.7117</v>
       </c>
       <c r="G64" t="n">
-        <v>308008.6526</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2659,18 +2465,21 @@
         <v>16874.3653</v>
       </c>
       <c r="G65" t="n">
-        <v>291134.2873</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2692,18 +2501,23 @@
         <v>9210.2374</v>
       </c>
       <c r="G66" t="n">
-        <v>281924.0499</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2725,18 +2539,21 @@
         <v>110000</v>
       </c>
       <c r="G67" t="n">
-        <v>391924.0499</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,18 +2575,21 @@
         <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>391934.0499</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2791,18 +2611,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>391944.0499</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2824,18 +2647,21 @@
         <v>10941.987</v>
       </c>
       <c r="G70" t="n">
-        <v>381002.0629</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2857,18 +2683,21 @@
         <v>7380.45</v>
       </c>
       <c r="G71" t="n">
-        <v>388382.5129</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2890,18 +2719,21 @@
         <v>3700</v>
       </c>
       <c r="G72" t="n">
-        <v>388382.5129</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2923,18 +2755,21 @@
         <v>807.4896</v>
       </c>
       <c r="G73" t="n">
-        <v>387575.0233</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2956,18 +2791,21 @@
         <v>2300</v>
       </c>
       <c r="G74" t="n">
-        <v>389875.0233</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2989,18 +2827,21 @@
         <v>94515.4016</v>
       </c>
       <c r="G75" t="n">
-        <v>295359.6217</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3022,18 +2863,21 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>296359.6217</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3055,18 +2899,21 @@
         <v>81</v>
       </c>
       <c r="G77" t="n">
-        <v>296359.6217</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3088,18 +2935,21 @@
         <v>80949.0114</v>
       </c>
       <c r="G78" t="n">
-        <v>377308.6331</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3121,18 +2971,21 @@
         <v>80746.6388</v>
       </c>
       <c r="G79" t="n">
-        <v>296561.9943</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3154,18 +3007,21 @@
         <v>1264.4039</v>
       </c>
       <c r="G80" t="n">
-        <v>297826.3982</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3187,18 +3043,21 @@
         <v>22889.5038</v>
       </c>
       <c r="G81" t="n">
-        <v>320715.902</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3220,18 +3079,21 @@
         <v>1897.6527</v>
       </c>
       <c r="G82" t="n">
-        <v>318818.2493</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3253,18 +3115,21 @@
         <v>13400</v>
       </c>
       <c r="G83" t="n">
-        <v>332218.2493</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3286,18 +3151,21 @@
         <v>1800</v>
       </c>
       <c r="G84" t="n">
-        <v>330418.2493</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3319,18 +3187,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>330428.2493</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3352,18 +3223,21 @@
         <v>68181.8181</v>
       </c>
       <c r="G86" t="n">
-        <v>398610.0674000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3385,18 +3259,21 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>398620.0674000001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3418,18 +3295,21 @@
         <v>1456.7816</v>
       </c>
       <c r="G88" t="n">
-        <v>397163.2858000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3451,18 +3331,21 @@
         <v>6121.3977</v>
       </c>
       <c r="G89" t="n">
-        <v>391041.8881000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3484,18 +3367,21 @@
         <v>4194.5167</v>
       </c>
       <c r="G90" t="n">
-        <v>395236.4048000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3517,18 +3403,21 @@
         <v>12962.2668</v>
       </c>
       <c r="G91" t="n">
-        <v>395236.4048000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3550,18 +3439,21 @@
         <v>8737.4815</v>
       </c>
       <c r="G92" t="n">
-        <v>403973.8863000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3583,18 +3475,21 @@
         <v>81028.0959</v>
       </c>
       <c r="G93" t="n">
-        <v>322945.7904000001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3616,18 +3511,21 @@
         <v>13839.7281</v>
       </c>
       <c r="G94" t="n">
-        <v>336785.5185000001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3649,18 +3547,21 @@
         <v>1318.4368</v>
       </c>
       <c r="G95" t="n">
-        <v>335467.0817</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3682,18 +3583,21 @@
         <v>581</v>
       </c>
       <c r="G96" t="n">
-        <v>335467.0817</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3715,18 +3619,21 @@
         <v>1953.7233</v>
       </c>
       <c r="G97" t="n">
-        <v>333513.3584</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3748,18 +3655,21 @@
         <v>26097.3101</v>
       </c>
       <c r="G98" t="n">
-        <v>307416.0483</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3781,18 +3691,21 @@
         <v>6614.7859</v>
       </c>
       <c r="G99" t="n">
-        <v>307416.0483</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3814,18 +3727,21 @@
         <v>29383.4145</v>
       </c>
       <c r="G100" t="n">
-        <v>307416.0483</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3847,18 +3763,23 @@
         <v>268236.5238</v>
       </c>
       <c r="G101" t="n">
-        <v>39179.5245</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3880,18 +3801,21 @@
         <v>42807.9807</v>
       </c>
       <c r="G102" t="n">
-        <v>81987.5052</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3913,18 +3837,23 @@
         <v>1153.846153846154</v>
       </c>
       <c r="G103" t="n">
-        <v>83141.35135384616</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="I103" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3946,18 +3875,21 @@
         <v>13862</v>
       </c>
       <c r="G104" t="n">
-        <v>69279.35135384616</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3979,18 +3911,21 @@
         <v>120017.8439</v>
       </c>
       <c r="G105" t="n">
-        <v>189297.1952538462</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4012,18 +3947,21 @@
         <v>10700</v>
       </c>
       <c r="G106" t="n">
-        <v>178597.1952538462</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4045,18 +3983,21 @@
         <v>62841.7906</v>
       </c>
       <c r="G107" t="n">
-        <v>115755.4046538462</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4078,18 +4019,21 @@
         <v>21990.921</v>
       </c>
       <c r="G108" t="n">
-        <v>137746.3256538462</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4111,18 +4055,21 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>137756.3256538462</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4144,18 +4091,21 @@
         <v>126472.499</v>
       </c>
       <c r="G110" t="n">
-        <v>137756.3256538462</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4177,18 +4127,21 @@
         <v>25111.1721</v>
       </c>
       <c r="G111" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4210,18 +4163,21 @@
         <v>2185.8795</v>
       </c>
       <c r="G112" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4243,18 +4199,21 @@
         <v>835.1647</v>
       </c>
       <c r="G113" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4276,18 +4235,21 @@
         <v>15400</v>
       </c>
       <c r="G114" t="n">
-        <v>112645.1535538462</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4309,18 +4271,21 @@
         <v>1700</v>
       </c>
       <c r="G115" t="n">
-        <v>110945.1535538462</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4342,18 +4307,21 @@
         <v>1845.0456</v>
       </c>
       <c r="G116" t="n">
-        <v>112790.1991538462</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4375,18 +4343,21 @@
         <v>4200</v>
       </c>
       <c r="G117" t="n">
-        <v>108590.1991538462</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4408,18 +4379,21 @@
         <v>2443.0149</v>
       </c>
       <c r="G118" t="n">
-        <v>111033.2140538462</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4441,18 +4415,21 @@
         <v>7556.9851</v>
       </c>
       <c r="G119" t="n">
-        <v>111033.2140538462</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4474,18 +4451,21 @@
         <v>2300</v>
       </c>
       <c r="G120" t="n">
-        <v>113333.2140538462</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4507,18 +4487,21 @@
         <v>90949.2248</v>
       </c>
       <c r="G121" t="n">
-        <v>22383.98925384617</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4540,18 +4523,21 @@
         <v>65320.7785</v>
       </c>
       <c r="G122" t="n">
-        <v>87704.76775384617</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4573,18 +4559,21 @@
         <v>874</v>
       </c>
       <c r="G123" t="n">
-        <v>86830.76775384617</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4606,18 +4595,21 @@
         <v>49360.3583</v>
       </c>
       <c r="G124" t="n">
-        <v>136191.1260538462</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4639,18 +4631,21 @@
         <v>1800</v>
       </c>
       <c r="G125" t="n">
-        <v>134391.1260538462</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4672,18 +4667,21 @@
         <v>736</v>
       </c>
       <c r="G126" t="n">
-        <v>133655.1260538462</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4705,18 +4703,21 @@
         <v>95420.965</v>
       </c>
       <c r="G127" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4738,18 +4739,21 @@
         <v>226196.5915</v>
       </c>
       <c r="G128" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4771,18 +4775,21 @@
         <v>86778.451</v>
       </c>
       <c r="G129" t="n">
-        <v>38234.16105384618</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4804,18 +4811,21 @@
         <v>19500</v>
       </c>
       <c r="G130" t="n">
-        <v>18734.16105384618</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4837,18 +4847,21 @@
         <v>8152.6471</v>
       </c>
       <c r="G131" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4870,18 +4883,21 @@
         <v>1697.7058</v>
       </c>
       <c r="G132" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4903,18 +4919,21 @@
         <v>5300.992</v>
       </c>
       <c r="G133" t="n">
-        <v>10581.51395384618</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4936,18 +4955,23 @@
         <v>13508.9961</v>
       </c>
       <c r="G134" t="n">
-        <v>-2927.482146153818</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="I134" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4969,22 +4993,23 @@
         <v>44676.9485</v>
       </c>
       <c r="G135" t="n">
-        <v>41749.46635384618</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>25.4</v>
       </c>
       <c r="I135" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5006,24 +5031,21 @@
         <v>7300</v>
       </c>
       <c r="G136" t="n">
-        <v>41749.46635384618</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5045,24 +5067,21 @@
         <v>7600</v>
       </c>
       <c r="G137" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5084,18 +5103,21 @@
         <v>6889.6007</v>
       </c>
       <c r="G138" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5117,18 +5139,21 @@
         <v>33522.1874</v>
       </c>
       <c r="G139" t="n">
-        <v>49349.46635384618</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5150,18 +5175,21 @@
         <v>100795.8065</v>
       </c>
       <c r="G140" t="n">
-        <v>150145.2728538462</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5183,18 +5211,21 @@
         <v>36141.1536</v>
       </c>
       <c r="G141" t="n">
-        <v>114004.1192538462</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5216,18 +5247,21 @@
         <v>1000</v>
       </c>
       <c r="G142" t="n">
-        <v>115004.1192538462</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5249,18 +5283,21 @@
         <v>2000</v>
       </c>
       <c r="G143" t="n">
-        <v>117004.1192538462</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5282,18 +5319,21 @@
         <v>21930.6654</v>
       </c>
       <c r="G144" t="n">
-        <v>138934.7846538462</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5315,18 +5355,21 @@
         <v>1849.4901</v>
       </c>
       <c r="G145" t="n">
-        <v>137085.2945538462</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5348,18 +5391,21 @@
         <v>1999.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>137085.2945538462</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5381,18 +5427,21 @@
         <v>37318.0385</v>
       </c>
       <c r="G147" t="n">
-        <v>174403.3330538462</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5414,18 +5463,21 @@
         <v>1000</v>
       </c>
       <c r="G148" t="n">
-        <v>173403.3330538462</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
